--- a/teaching/traditional_assets/database/data/turkey/turkey_real_estate_development.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_real_estate_development.xlsx
@@ -647,10 +647,10 @@
         <v>0.01098214285714286</v>
       </c>
       <c r="X2">
-        <v>0.07491356425177234</v>
+        <v>0.0713785886094644</v>
       </c>
       <c r="Y2">
-        <v>-0.06393142139462948</v>
+        <v>-0.06039644575232155</v>
       </c>
       <c r="Z2">
         <v>0.04330902911024615</v>
@@ -659,10 +659,10 @@
         <v>0.03286166653171829</v>
       </c>
       <c r="AB2">
-        <v>0.07160748434052037</v>
+        <v>0.06775698623865571</v>
       </c>
       <c r="AC2">
-        <v>-0.03874581780880209</v>
+        <v>-0.03489531970693743</v>
       </c>
       <c r="AD2">
         <v>13.708</v>
@@ -778,10 +778,10 @@
         <v>0.01571428571428572</v>
       </c>
       <c r="X3">
-        <v>0.08397667113319784</v>
+        <v>0.08089628375671229</v>
       </c>
       <c r="Y3">
-        <v>-0.06826238541891214</v>
+        <v>-0.06518199804242658</v>
       </c>
       <c r="Z3">
         <v>0.07437627490977562</v>
@@ -790,10 +790,10 @@
         <v>0.07437627490977562</v>
       </c>
       <c r="AB3">
-        <v>0.07736471245367062</v>
+        <v>0.07365335996278349</v>
       </c>
       <c r="AC3">
-        <v>-0.002988437543894995</v>
+        <v>0.0007229149469921287</v>
       </c>
       <c r="AD3">
         <v>13.7</v>
@@ -891,10 +891,10 @@
         <v>0.006249999999999999</v>
       </c>
       <c r="X4">
-        <v>0.06585045737034684</v>
+        <v>0.06186089346221652</v>
       </c>
       <c r="Y4">
-        <v>-0.05960045737034684</v>
+        <v>-0.05561089346221652</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -903,10 +903,10 @@
         <v>-0.008652941846339053</v>
       </c>
       <c r="AB4">
-        <v>0.06585025622737013</v>
+        <v>0.06186061251452792</v>
       </c>
       <c r="AC4">
-        <v>-0.07450319807370918</v>
+        <v>-0.07051355436086698</v>
       </c>
       <c r="AD4">
         <v>0.008</v>
@@ -1206,37 +1206,37 @@
         <v>0.31712962962963</v>
       </c>
       <c r="F2">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="G2">
         <v>29.5</v>
       </c>
       <c r="H2">
-        <v>35.4665812218157</v>
+        <v>42.7817011985727</v>
       </c>
       <c r="I2">
         <v>36.55</v>
       </c>
       <c r="J2">
-        <v>46.5285812218157</v>
+        <v>46.4997011985727</v>
       </c>
       <c r="K2">
         <v>13.7</v>
       </c>
       <c r="L2">
-        <v>17.712</v>
+        <v>10.368</v>
       </c>
       <c r="M2">
-        <v>0.0773647124536706</v>
+        <v>0.07365335996278349</v>
       </c>
       <c r="N2">
-        <v>0.0641614625912261</v>
+        <v>0.0598834499149843</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.012636</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1245,23 +1245,23 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="S2">
-        <v>0.0839766711331978</v>
+        <v>0.0808962837567123</v>
       </c>
       <c r="T2">
-        <v>0.09297505523936619</v>
+        <v>0.07480369725655819</v>
       </c>
       <c r="U2">
         <v>0.712419296565511</v>
       </c>
       <c r="V2">
-        <v>0.806448857830216</v>
+        <v>0.6517949741711609</v>
       </c>
       <c r="W2">
-        <v>4.598198902951228</v>
+        <v>14.11036808413352</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1270,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>29.5</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1474,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06584757374282925</v>
+        <v>0.06185786519740737</v>
       </c>
       <c r="C2">
-        <v>51.61102551832626</v>
+        <v>51.40286996161642</v>
       </c>
       <c r="D2">
-        <v>44.96102551832626</v>
+        <v>44.75286996161642</v>
       </c>
       <c r="E2">
         <v>-13.7</v>
@@ -1525,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06584757374282925</v>
+        <v>0.06185786519740737</v>
       </c>
       <c r="T2">
         <v>0.5229773863704416</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1556,13 +1556,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.06575652908059502</v>
+        <v>0.06177559789397307</v>
       </c>
       <c r="C3">
-        <v>51.26096598651644</v>
+        <v>51.04103015188478</v>
       </c>
       <c r="D3">
-        <v>45.04296598651644</v>
+        <v>44.82303015188479</v>
       </c>
       <c r="E3">
         <v>-13.268</v>
@@ -1589,37 +1589,37 @@
         <v>2.37</v>
       </c>
       <c r="M3">
-        <v>0.009806400000000002</v>
+        <v>0.0069984</v>
       </c>
       <c r="N3">
-        <v>2.3601936</v>
+        <v>2.3630016</v>
       </c>
       <c r="O3">
-        <v>0.519242592</v>
+        <v>0.519860352</v>
       </c>
       <c r="P3">
-        <v>1.840951008</v>
+        <v>1.843141248</v>
       </c>
       <c r="Q3">
-        <v>1.870951008</v>
+        <v>1.873141248</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.06624188796019699</v>
+        <v>0.06227195746865967</v>
       </c>
       <c r="T3">
         <v>0.5270978142630571</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>241.6789035731767</v>
+        <v>338.6488340192044</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.0656654844183608</v>
+        <v>0.06169333059053878</v>
       </c>
       <c r="C4">
-        <v>50.91120566937732</v>
+        <v>50.67941067132853</v>
       </c>
       <c r="D4">
-        <v>45.12520566937732</v>
+        <v>44.89341067132853</v>
       </c>
       <c r="E4">
         <v>-12.836</v>
@@ -1671,37 +1671,37 @@
         <v>2.37</v>
       </c>
       <c r="M4">
-        <v>0.0196128</v>
+        <v>0.0139968</v>
       </c>
       <c r="N4">
-        <v>2.3503872</v>
+        <v>2.3560032</v>
       </c>
       <c r="O4">
-        <v>0.517085184</v>
+        <v>0.518320704</v>
       </c>
       <c r="P4">
-        <v>1.833302016</v>
+        <v>1.837682496</v>
       </c>
       <c r="Q4">
-        <v>1.863302016</v>
+        <v>1.867682496</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.06664424940649061</v>
+        <v>0.06269450060259059</v>
       </c>
       <c r="T4">
         <v>0.5313023325208281</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>120.8394517865883</v>
+        <v>169.3244170096022</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.06557443975612659</v>
+        <v>0.06161106328710447</v>
       </c>
       <c r="C5">
-        <v>50.56174620882985</v>
+        <v>50.31801255945359</v>
       </c>
       <c r="D5">
-        <v>45.20774620882985</v>
+        <v>44.96401255945359</v>
       </c>
       <c r="E5">
         <v>-12.404</v>
@@ -1753,37 +1753,37 @@
         <v>2.37</v>
       </c>
       <c r="M5">
-        <v>0.0294192</v>
+        <v>0.0209952</v>
       </c>
       <c r="N5">
-        <v>2.3405808</v>
+        <v>2.3490048</v>
       </c>
       <c r="O5">
-        <v>0.5149277760000001</v>
+        <v>0.516781056</v>
       </c>
       <c r="P5">
-        <v>1.825653024</v>
+        <v>1.832223744</v>
       </c>
       <c r="Q5">
-        <v>1.855653024</v>
+        <v>1.862223744</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.06705490696507896</v>
+        <v>0.06312575596608709</v>
       </c>
       <c r="T5">
         <v>0.5355935418766976</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>80.55963452439222</v>
+        <v>112.8829446730681</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.06548339509389234</v>
+        <v>0.06152879598367017</v>
       </c>
       <c r="C6">
-        <v>50.21258925883028</v>
+        <v>49.95683686231534</v>
       </c>
       <c r="D6">
-        <v>45.29058925883028</v>
+        <v>45.03483686231534</v>
       </c>
       <c r="E6">
         <v>-11.972</v>
@@ -1835,37 +1835,37 @@
         <v>2.37</v>
       </c>
       <c r="M6">
-        <v>0.03922560000000001</v>
+        <v>0.0279936</v>
       </c>
       <c r="N6">
-        <v>2.3307744</v>
+        <v>2.3420064</v>
       </c>
       <c r="O6">
-        <v>0.5127703680000001</v>
+        <v>0.5152414080000001</v>
       </c>
       <c r="P6">
-        <v>1.818004032</v>
+        <v>1.826764992</v>
       </c>
       <c r="Q6">
-        <v>1.848004032</v>
+        <v>1.856764992</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.06747411988947119</v>
+        <v>0.06356599581632309</v>
       </c>
       <c r="T6">
         <v>0.5399741514274808</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>60.41972589329417</v>
+        <v>84.6622085048011</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1884,13 +1884,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.06539235043165814</v>
+        <v>0.06144652868023588</v>
       </c>
       <c r="C7">
-        <v>49.86373648548049</v>
+        <v>49.59588463257028</v>
       </c>
       <c r="D7">
-        <v>45.37373648548049</v>
+        <v>45.10588463257027</v>
       </c>
       <c r="E7">
         <v>-11.54</v>
@@ -1917,37 +1917,37 @@
         <v>2.37</v>
       </c>
       <c r="M7">
-        <v>0.04903200000000001</v>
+        <v>0.034992</v>
       </c>
       <c r="N7">
-        <v>2.320968</v>
+        <v>2.335008</v>
       </c>
       <c r="O7">
-        <v>0.51061296</v>
+        <v>0.51370176</v>
       </c>
       <c r="P7">
-        <v>1.81035504</v>
+        <v>1.82130624</v>
       </c>
       <c r="Q7">
-        <v>1.84035504</v>
+        <v>1.85130624</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.06790215834911383</v>
+        <v>0.06401550387393251</v>
       </c>
       <c r="T7">
         <v>0.5444469843372282</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>48.33578071463533</v>
+        <v>67.72976680384087</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.06530130576942389</v>
+        <v>0.06136426137680159</v>
       </c>
       <c r="C8">
-        <v>49.51518956713998</v>
+        <v>49.23515692952816</v>
       </c>
       <c r="D8">
-        <v>45.45718956713998</v>
+        <v>45.17715692952816</v>
       </c>
       <c r="E8">
         <v>-11.108</v>
@@ -1999,37 +1999,37 @@
         <v>2.37</v>
       </c>
       <c r="M8">
-        <v>0.05883840000000001</v>
+        <v>0.0419904</v>
       </c>
       <c r="N8">
-        <v>2.3111616</v>
+        <v>2.3280096</v>
       </c>
       <c r="O8">
-        <v>0.508455552</v>
+        <v>0.5121621120000001</v>
       </c>
       <c r="P8">
-        <v>1.802706048</v>
+        <v>1.815847488</v>
       </c>
       <c r="Q8">
-        <v>1.832706048</v>
+        <v>1.845847488</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.06833930401002541</v>
+        <v>0.06447457593276765</v>
       </c>
       <c r="T8">
         <v>0.5490149839046294</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>40.27981726219612</v>
+        <v>56.44147233653407</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2048,13 +2048,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.06521026110718969</v>
+        <v>0.0612819940733673</v>
       </c>
       <c r="C9">
-        <v>49.16695019453835</v>
+        <v>48.87465481920461</v>
       </c>
       <c r="D9">
-        <v>45.54095019453835</v>
+        <v>45.24865481920462</v>
       </c>
       <c r="E9">
         <v>-10.676</v>
@@ -2081,37 +2081,37 @@
         <v>2.37</v>
       </c>
       <c r="M9">
-        <v>0.06864480000000002</v>
+        <v>0.04898880000000001</v>
       </c>
       <c r="N9">
-        <v>2.3013552</v>
+        <v>2.3210112</v>
       </c>
       <c r="O9">
-        <v>0.5062981440000001</v>
+        <v>0.510622464</v>
       </c>
       <c r="P9">
-        <v>1.795057056</v>
+        <v>1.810388736</v>
       </c>
       <c r="Q9">
-        <v>1.825057056</v>
+        <v>1.840388736</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.06878585065289214</v>
+        <v>0.0649435205089971</v>
       </c>
       <c r="T9">
         <v>0.5536812200218676</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>34.52555765331095</v>
+        <v>48.37840485988634</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.06511921644495546</v>
+        <v>0.061199726769933</v>
       </c>
       <c r="C10">
-        <v>48.81902007089001</v>
+        <v>48.51437937437436</v>
       </c>
       <c r="D10">
-        <v>45.62502007089001</v>
+        <v>45.32037937437437</v>
       </c>
       <c r="E10">
         <v>-10.244</v>
@@ -2163,37 +2163,37 @@
         <v>2.37</v>
       </c>
       <c r="M10">
-        <v>0.07845120000000001</v>
+        <v>0.0559872</v>
       </c>
       <c r="N10">
-        <v>2.2915488</v>
+        <v>2.3140128</v>
       </c>
       <c r="O10">
-        <v>0.5041407360000001</v>
+        <v>0.509082816</v>
       </c>
       <c r="P10">
-        <v>1.787408064</v>
+        <v>1.804929984</v>
       </c>
       <c r="Q10">
-        <v>1.817408064</v>
+        <v>1.834929984</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.06924210483147332</v>
+        <v>0.06542265953253587</v>
       </c>
       <c r="T10">
         <v>0.5584488960546976</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>30.20986294664709</v>
+        <v>42.33110425240055</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2212,13 +2212,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.06502817178272124</v>
+        <v>0.06111745946649869</v>
       </c>
       <c r="C11">
-        <v>48.47140091200914</v>
+        <v>48.15433167462484</v>
       </c>
       <c r="D11">
-        <v>45.70940091200914</v>
+        <v>45.39233167462483</v>
       </c>
       <c r="E11">
         <v>-9.811999999999999</v>
@@ -2245,37 +2245,37 @@
         <v>2.37</v>
       </c>
       <c r="M11">
-        <v>0.08825760000000001</v>
+        <v>0.06298559999999999</v>
       </c>
       <c r="N11">
-        <v>2.2817424</v>
+        <v>2.3070144</v>
       </c>
       <c r="O11">
-        <v>0.501983328</v>
+        <v>0.507543168</v>
       </c>
       <c r="P11">
-        <v>1.779759072</v>
+        <v>1.799471232</v>
       </c>
       <c r="Q11">
-        <v>1.809759072</v>
+        <v>1.829471232</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.06970838657441894</v>
+        <v>0.0659123290840645</v>
       </c>
       <c r="T11">
         <v>0.5633213561761613</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>26.85321150813074</v>
+        <v>37.62764822435605</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.06493712712048701</v>
+        <v>0.06103519216306441</v>
       </c>
       <c r="C12">
-        <v>48.12409444642679</v>
+        <v>47.79451280641025</v>
       </c>
       <c r="D12">
-        <v>45.79409444642679</v>
+        <v>45.46451280641025</v>
       </c>
       <c r="E12">
         <v>-9.379999999999999</v>
@@ -2327,37 +2327,37 @@
         <v>2.37</v>
       </c>
       <c r="M12">
-        <v>0.09806400000000001</v>
+        <v>0.069984</v>
       </c>
       <c r="N12">
-        <v>2.271936</v>
+        <v>2.300016</v>
       </c>
       <c r="O12">
-        <v>0.49982592</v>
+        <v>0.50600352</v>
       </c>
       <c r="P12">
-        <v>1.77211008</v>
+        <v>1.79401248</v>
       </c>
       <c r="Q12">
-        <v>1.80211008</v>
+        <v>1.82401248</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.07018503013387445</v>
+        <v>0.06641288018118267</v>
       </c>
       <c r="T12">
         <v>0.5683020931892132</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>24.16789035731767</v>
+        <v>33.86488340192044</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2376,13 +2376,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.0648460824582528</v>
+        <v>0.06095292485963011</v>
       </c>
       <c r="C13">
-        <v>47.77710241550863</v>
+        <v>47.43492386310649</v>
       </c>
       <c r="D13">
-        <v>45.87910241550863</v>
+        <v>45.53692386310649</v>
       </c>
       <c r="E13">
         <v>-8.947999999999999</v>
@@ -2409,37 +2409,37 @@
         <v>2.37</v>
       </c>
       <c r="M13">
-        <v>0.1078704</v>
+        <v>0.07698240000000001</v>
       </c>
       <c r="N13">
-        <v>2.2621296</v>
+        <v>2.2930176</v>
       </c>
       <c r="O13">
-        <v>0.4976685120000001</v>
+        <v>0.5044638720000001</v>
       </c>
       <c r="P13">
-        <v>1.764461088</v>
+        <v>1.788553728</v>
       </c>
       <c r="Q13">
-        <v>1.794461088</v>
+        <v>1.818553728</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.07067238478455369</v>
+        <v>0.06692467961756192</v>
       </c>
       <c r="T13">
         <v>0.5733947568767156</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>21.97080941574334</v>
+        <v>30.78625763810949</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.06475503779601856</v>
+        <v>0.06087065755619582</v>
       </c>
       <c r="C14">
-        <v>47.43042657357454</v>
+        <v>47.07556594506615</v>
       </c>
       <c r="D14">
-        <v>45.96442657357453</v>
+        <v>45.60956594506615</v>
       </c>
       <c r="E14">
         <v>-8.515999999999998</v>
@@ -2491,37 +2491,37 @@
         <v>2.37</v>
       </c>
       <c r="M14">
-        <v>0.1176768</v>
+        <v>0.08398079999999999</v>
       </c>
       <c r="N14">
-        <v>2.2523232</v>
+        <v>2.2860192</v>
       </c>
       <c r="O14">
-        <v>0.495511104</v>
+        <v>0.502924224</v>
       </c>
       <c r="P14">
-        <v>1.756812096</v>
+        <v>1.783094976</v>
       </c>
       <c r="Q14">
-        <v>1.786812096</v>
+        <v>1.813094976</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.07117081567729382</v>
+        <v>0.06744811085931343</v>
       </c>
       <c r="T14">
         <v>0.5786031629207522</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>20.13990863109806</v>
+        <v>28.22073616826703</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2540,13 +2540,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.06466399313378433</v>
+        <v>0.06078839025276152</v>
       </c>
       <c r="C15">
-        <v>47.08406868801908</v>
+        <v>46.71644015967433</v>
       </c>
       <c r="D15">
-        <v>46.05006868801908</v>
+        <v>45.68244015967433</v>
       </c>
       <c r="E15">
         <v>-8.084</v>
@@ -2573,37 +2573,37 @@
         <v>2.37</v>
       </c>
       <c r="M15">
-        <v>0.1274832</v>
+        <v>0.09097920000000001</v>
       </c>
       <c r="N15">
-        <v>2.2425168</v>
+        <v>2.2790208</v>
       </c>
       <c r="O15">
-        <v>0.4933536960000001</v>
+        <v>0.501384576</v>
       </c>
       <c r="P15">
-        <v>1.749163104</v>
+        <v>1.777636224</v>
       </c>
       <c r="Q15">
-        <v>1.779163104</v>
+        <v>1.807636224</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.07168070475147625</v>
+        <v>0.06798357500317416</v>
       </c>
       <c r="T15">
         <v>0.5839313024370655</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>18.59068489024436</v>
+        <v>26.04991030916957</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2622,13 +2622,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.06457294847155011</v>
+        <v>0.06070612294932722</v>
       </c>
       <c r="C16">
-        <v>46.73803053943369</v>
+        <v>46.3575476214049</v>
       </c>
       <c r="D16">
-        <v>46.13603053943369</v>
+        <v>45.75554762140491</v>
       </c>
       <c r="E16">
         <v>-7.651999999999998</v>
@@ -2655,37 +2655,37 @@
         <v>2.37</v>
       </c>
       <c r="M16">
-        <v>0.1372896</v>
+        <v>0.09797760000000001</v>
       </c>
       <c r="N16">
-        <v>2.2327104</v>
+        <v>2.2720224</v>
       </c>
       <c r="O16">
-        <v>0.491196288</v>
+        <v>0.499844928</v>
       </c>
       <c r="P16">
-        <v>1.741514112</v>
+        <v>1.772177472</v>
       </c>
       <c r="Q16">
-        <v>1.771514112</v>
+        <v>1.802177472</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.07220245171110477</v>
+        <v>0.06853149180154328</v>
       </c>
       <c r="T16">
         <v>0.5893833521746883</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>17.26277882665547</v>
+        <v>24.18920242994317</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2704,13 +2704,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.06448190380931589</v>
+        <v>0.06062385564589293</v>
       </c>
       <c r="C17">
-        <v>46.39231392172998</v>
+        <v>45.99888945187733</v>
       </c>
       <c r="D17">
-        <v>46.22231392172998</v>
+        <v>45.82888945187733</v>
       </c>
       <c r="E17">
         <v>-7.219999999999999</v>
@@ -2737,37 +2737,37 @@
         <v>2.37</v>
       </c>
       <c r="M17">
-        <v>0.147096</v>
+        <v>0.104976</v>
       </c>
       <c r="N17">
-        <v>2.222904</v>
+        <v>2.265024</v>
       </c>
       <c r="O17">
-        <v>0.4890388800000001</v>
+        <v>0.49830528</v>
       </c>
       <c r="P17">
-        <v>1.73386512</v>
+        <v>1.76671872</v>
       </c>
       <c r="Q17">
-        <v>1.76386512</v>
+        <v>1.79671872</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.0727364750697834</v>
+        <v>0.06909230075987403</v>
       </c>
       <c r="T17">
         <v>0.5949636854355494</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>16.11192690487844</v>
+        <v>22.57658893461362</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2786,13 +2786,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.06439085914708166</v>
+        <v>0.06054158834245862</v>
       </c>
       <c r="C18">
-        <v>46.0469206422646</v>
+        <v>45.64046677991404</v>
       </c>
       <c r="D18">
-        <v>46.3089206422646</v>
+        <v>45.90246677991404</v>
       </c>
       <c r="E18">
         <v>-6.787999999999998</v>
@@ -2819,37 +2819,37 @@
         <v>2.37</v>
       </c>
       <c r="M18">
-        <v>0.1569024</v>
+        <v>0.1119744</v>
       </c>
       <c r="N18">
-        <v>2.2130976</v>
+        <v>2.2580256</v>
       </c>
       <c r="O18">
-        <v>0.486881472</v>
+        <v>0.4967656320000001</v>
       </c>
       <c r="P18">
-        <v>1.726216128</v>
+        <v>1.761259968</v>
       </c>
       <c r="Q18">
-        <v>1.756216128</v>
+        <v>1.791259968</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.07328321327033531</v>
+        <v>0.06966646231245074</v>
       </c>
       <c r="T18">
         <v>0.60067688377405</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>15.10493147332354</v>
+        <v>21.16555212620028</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.06429981448484742</v>
+        <v>0.06045932103902432</v>
       </c>
       <c r="C19">
-        <v>45.70185252196538</v>
+        <v>45.28228074159826</v>
       </c>
       <c r="D19">
-        <v>46.39585252196538</v>
+        <v>45.97628074159827</v>
       </c>
       <c r="E19">
         <v>-6.355999999999998</v>
@@ -2901,37 +2901,37 @@
         <v>2.37</v>
       </c>
       <c r="M19">
-        <v>0.1667088</v>
+        <v>0.1189728</v>
       </c>
       <c r="N19">
-        <v>2.2032912</v>
+        <v>2.2510272</v>
       </c>
       <c r="O19">
-        <v>0.4847240640000001</v>
+        <v>0.4952259840000001</v>
       </c>
       <c r="P19">
-        <v>1.718567136</v>
+        <v>1.755801216</v>
       </c>
       <c r="Q19">
-        <v>1.748567136</v>
+        <v>1.785801216</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.07384312588535835</v>
+        <v>0.07025445908316184</v>
       </c>
       <c r="T19">
         <v>0.6065277495423941</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>14.2164060925398</v>
+        <v>19.92051964818849</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.06420876982261321</v>
+        <v>0.06037705373559003</v>
       </c>
       <c r="C20">
-        <v>45.35711139545894</v>
+        <v>44.92433248033264</v>
       </c>
       <c r="D20">
-        <v>46.48311139545894</v>
+        <v>46.05033248033264</v>
       </c>
       <c r="E20">
         <v>-5.923999999999999</v>
@@ -2983,37 +2983,37 @@
         <v>2.37</v>
       </c>
       <c r="M20">
-        <v>0.1765152</v>
+        <v>0.1259712</v>
       </c>
       <c r="N20">
-        <v>2.1934848</v>
+        <v>2.2440288</v>
       </c>
       <c r="O20">
-        <v>0.482566656</v>
+        <v>0.4936863360000001</v>
       </c>
       <c r="P20">
-        <v>1.710918144</v>
+        <v>1.750342464</v>
       </c>
       <c r="Q20">
-        <v>1.740918144</v>
+        <v>1.780342464</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.07441669490562586</v>
+        <v>0.07085679723852442</v>
       </c>
       <c r="T20">
         <v>0.6125213193538683</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>13.42660575406537</v>
+        <v>18.81382411217803</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3032,13 +3032,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.064354845160379</v>
+        <v>0.06029478643215575</v>
       </c>
       <c r="C21">
-        <v>44.78526878706285</v>
+        <v>44.56662314689812</v>
       </c>
       <c r="D21">
-        <v>46.34326878706285</v>
+        <v>46.12462314689812</v>
       </c>
       <c r="E21">
         <v>-5.491999999999999</v>
@@ -3065,45 +3065,45 @@
         <v>2.37</v>
       </c>
       <c r="M21">
-        <v>0.1994544</v>
+        <v>0.1329696</v>
       </c>
       <c r="N21">
-        <v>2.1705456</v>
+        <v>2.2370304</v>
       </c>
       <c r="O21">
-        <v>0.477520032</v>
+        <v>0.492146688</v>
       </c>
       <c r="P21">
-        <v>1.693025568</v>
+        <v>1.744883712</v>
       </c>
       <c r="Q21">
-        <v>1.723025568</v>
+        <v>1.774883712</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.07500442612392468</v>
+        <v>0.07147400794093302</v>
       </c>
       <c r="T21">
         <v>0.6186628785434038</v>
       </c>
       <c r="U21">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y21">
-        <v>11.88241522874401</v>
+        <v>17.82362284311602</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.06427628049814478</v>
+        <v>0.06021251912872145</v>
       </c>
       <c r="C22">
-        <v>44.42837651442292</v>
+        <v>44.20915389951369</v>
       </c>
       <c r="D22">
-        <v>46.41837651442292</v>
+        <v>46.1991538995137</v>
       </c>
       <c r="E22">
         <v>-5.059999999999999</v>
@@ -3147,45 +3147,45 @@
         <v>2.37</v>
       </c>
       <c r="M22">
-        <v>0.209952</v>
+        <v>0.139968</v>
       </c>
       <c r="N22">
-        <v>2.160048</v>
+        <v>2.230032</v>
       </c>
       <c r="O22">
-        <v>0.4752105600000001</v>
+        <v>0.49060704</v>
       </c>
       <c r="P22">
-        <v>1.68483744</v>
+        <v>1.73942496</v>
       </c>
       <c r="Q22">
-        <v>1.71483744</v>
+        <v>1.76942496</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.07560685062268097</v>
+        <v>0.07210664891090181</v>
       </c>
       <c r="T22">
         <v>0.6249579767126777</v>
       </c>
       <c r="U22">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y22">
-        <v>11.28829446730681</v>
+        <v>16.93244170096022</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.06419771583591054</v>
+        <v>0.06013025182528715</v>
       </c>
       <c r="C23">
-        <v>44.07172808854847</v>
+        <v>43.85192590389649</v>
       </c>
       <c r="D23">
-        <v>46.49372808854847</v>
+        <v>46.2739259038965</v>
       </c>
       <c r="E23">
         <v>-4.627999999999998</v>
@@ -3229,45 +3229,45 @@
         <v>2.37</v>
       </c>
       <c r="M23">
-        <v>0.2204496000000001</v>
+        <v>0.1469664</v>
       </c>
       <c r="N23">
-        <v>2.1495504</v>
+        <v>2.2230336</v>
       </c>
       <c r="O23">
-        <v>0.472901088</v>
+        <v>0.489067392</v>
       </c>
       <c r="P23">
-        <v>1.676649312</v>
+        <v>1.733966208</v>
       </c>
       <c r="Q23">
-        <v>1.706649312</v>
+        <v>1.763966208</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.07622452637457029</v>
+        <v>0.07275530610795841</v>
       </c>
       <c r="T23">
         <v>0.6314124444558571</v>
       </c>
       <c r="U23">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y23">
-        <v>10.7507566355303</v>
+        <v>16.12613495329545</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.06449667117367631</v>
+        <v>0.06004798452185285</v>
       </c>
       <c r="C24">
-        <v>43.35429691122776</v>
+        <v>43.4949403333226</v>
       </c>
       <c r="D24">
-        <v>46.20829691122776</v>
+        <v>46.3489403333226</v>
       </c>
       <c r="E24">
         <v>-4.195999999999998</v>
@@ -3311,45 +3311,45 @@
         <v>2.37</v>
       </c>
       <c r="M24">
-        <v>0.2518560000000001</v>
+        <v>0.1539648</v>
       </c>
       <c r="N24">
-        <v>2.118144</v>
+        <v>2.2160352</v>
       </c>
       <c r="O24">
-        <v>0.46599168</v>
+        <v>0.4875277440000001</v>
       </c>
       <c r="P24">
-        <v>1.65215232</v>
+        <v>1.728507456</v>
       </c>
       <c r="Q24">
-        <v>1.68215232</v>
+        <v>1.758507456</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.07685803996625168</v>
+        <v>0.07342059554083699</v>
       </c>
       <c r="T24">
         <v>0.6380324113719387</v>
       </c>
       <c r="U24">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y24">
-        <v>9.410139127120257</v>
+        <v>15.39312881905475</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.06443526651144209</v>
+        <v>0.05996571721841856</v>
       </c>
       <c r="C25">
-        <v>42.98063739268859</v>
+        <v>43.13819836868845</v>
       </c>
       <c r="D25">
-        <v>46.26663739268859</v>
+        <v>46.42419836868845</v>
       </c>
       <c r="E25">
         <v>-3.763999999999998</v>
@@ -3393,45 +3393,45 @@
         <v>2.37</v>
       </c>
       <c r="M25">
-        <v>0.2633040000000001</v>
+        <v>0.1609632</v>
       </c>
       <c r="N25">
-        <v>2.106696</v>
+        <v>2.2090368</v>
       </c>
       <c r="O25">
-        <v>0.46347312</v>
+        <v>0.485988096</v>
       </c>
       <c r="P25">
-        <v>1.64322288</v>
+        <v>1.723048704</v>
       </c>
       <c r="Q25">
-        <v>1.67322288</v>
+        <v>1.753048704</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.0775080084564183</v>
+        <v>0.0741031652187254</v>
       </c>
       <c r="T25">
         <v>0.6448243254806457</v>
       </c>
       <c r="U25">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y25">
-        <v>9.001002643332418</v>
+        <v>14.72386234866106</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3442,13 +3442,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.06437386184920786</v>
+        <v>0.05988344991498426</v>
       </c>
       <c r="C26">
-        <v>42.60712537642418</v>
+        <v>42.78170119857272</v>
       </c>
       <c r="D26">
-        <v>46.32512537642418</v>
+        <v>46.49970119857272</v>
       </c>
       <c r="E26">
         <v>-3.331999999999999</v>
@@ -3475,45 +3475,45 @@
         <v>2.37</v>
       </c>
       <c r="M26">
-        <v>0.2747520000000001</v>
+        <v>0.1679616</v>
       </c>
       <c r="N26">
-        <v>2.095248</v>
+        <v>2.2020384</v>
       </c>
       <c r="O26">
-        <v>0.4609545600000001</v>
+        <v>0.484448448</v>
       </c>
       <c r="P26">
-        <v>1.63429344</v>
+        <v>1.717589952</v>
       </c>
       <c r="Q26">
-        <v>1.66429344</v>
+        <v>1.747589952</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.07817508138053667</v>
+        <v>0.07480369725655824</v>
       </c>
       <c r="T26">
         <v>0.6517949741711608</v>
       </c>
       <c r="U26">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y26">
-        <v>8.625960866526903</v>
+        <v>14.11036808413352</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.06431245718697363</v>
+        <v>0.06011318261154996</v>
       </c>
       <c r="C27">
-        <v>42.23376142253774</v>
+        <v>42.13947028610436</v>
       </c>
       <c r="D27">
-        <v>46.38376142253774</v>
+        <v>46.28947028610436</v>
       </c>
       <c r="E27">
         <v>-2.899999999999999</v>
@@ -3557,45 +3557,45 @@
         <v>2.37</v>
       </c>
       <c r="M27">
-        <v>0.2862000000000001</v>
+        <v>0.19224</v>
       </c>
       <c r="N27">
-        <v>2.0838</v>
+        <v>2.17776</v>
       </c>
       <c r="O27">
-        <v>0.458436</v>
+        <v>0.4791072</v>
       </c>
       <c r="P27">
-        <v>1.625364</v>
+        <v>1.6986528</v>
       </c>
       <c r="Q27">
-        <v>1.655364</v>
+        <v>1.7286528</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.07885994291596485</v>
+        <v>0.07552291014873329</v>
       </c>
       <c r="T27">
         <v>0.6589515068267564</v>
       </c>
       <c r="U27">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y27">
-        <v>8.280922431865827</v>
+        <v>12.32833957553059</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3606,13 +3606,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.06425105252473942</v>
+        <v>0.06004339530811568</v>
       </c>
       <c r="C28">
-        <v>41.86054609397184</v>
+        <v>41.77113211419162</v>
       </c>
       <c r="D28">
-        <v>46.44254609397184</v>
+        <v>46.35313211419162</v>
       </c>
       <c r="E28">
         <v>-2.467999999999998</v>
@@ -3639,45 +3639,45 @@
         <v>2.37</v>
       </c>
       <c r="M28">
-        <v>0.2976480000000001</v>
+        <v>0.1999296</v>
       </c>
       <c r="N28">
-        <v>2.072352</v>
+        <v>2.1700704</v>
       </c>
       <c r="O28">
-        <v>0.45591744</v>
+        <v>0.4774154880000001</v>
       </c>
       <c r="P28">
-        <v>1.61643456</v>
+        <v>1.692654912</v>
       </c>
       <c r="Q28">
-        <v>1.64643456</v>
+        <v>1.722654912</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.07956331422262083</v>
+        <v>0.07626156122718335</v>
       </c>
       <c r="T28">
         <v>0.6663014592838545</v>
       </c>
       <c r="U28">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y28">
-        <v>7.962425415255602</v>
+        <v>11.85417266877941</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3688,13 +3688,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.0644213078625052</v>
+        <v>0.05997360800468137</v>
       </c>
       <c r="C29">
-        <v>41.26592004133063</v>
+        <v>41.40296929143948</v>
       </c>
       <c r="D29">
-        <v>46.27992004133063</v>
+        <v>46.41696929143948</v>
       </c>
       <c r="E29">
         <v>-2.035999999999998</v>
@@ -3721,45 +3721,45 @@
         <v>2.37</v>
       </c>
       <c r="M29">
-        <v>0.3219264000000001</v>
+        <v>0.2076192</v>
       </c>
       <c r="N29">
-        <v>2.0480736</v>
+        <v>2.1623808</v>
       </c>
       <c r="O29">
-        <v>0.450576192</v>
+        <v>0.475723776</v>
       </c>
       <c r="P29">
-        <v>1.597497408</v>
+        <v>1.686657024</v>
       </c>
       <c r="Q29">
-        <v>1.627497408</v>
+        <v>1.716657024</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.08028595597603452</v>
+        <v>0.07702044932148133</v>
       </c>
       <c r="T29">
         <v>0.673852780301421</v>
       </c>
       <c r="U29">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y29">
-        <v>7.361931174330529</v>
+        <v>11.41512923660239</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3770,13 +3770,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.06436848320027097</v>
+        <v>0.05990382070124708</v>
       </c>
       <c r="C30">
-        <v>40.88425558782752</v>
+        <v>41.03498254331557</v>
       </c>
       <c r="D30">
-        <v>46.33025558782752</v>
+        <v>46.48098254331558</v>
       </c>
       <c r="E30">
         <v>-1.603999999999997</v>
@@ -3803,45 +3803,45 @@
         <v>2.37</v>
       </c>
       <c r="M30">
-        <v>0.3338496</v>
+        <v>0.2153088</v>
       </c>
       <c r="N30">
-        <v>2.0361504</v>
+        <v>2.1546912</v>
       </c>
       <c r="O30">
-        <v>0.447953088</v>
+        <v>0.474032064</v>
       </c>
       <c r="P30">
-        <v>1.588197312</v>
+        <v>1.680659136</v>
       </c>
       <c r="Q30">
-        <v>1.618197312</v>
+        <v>1.710659136</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.08102867111148745</v>
+        <v>0.07780041764062094</v>
       </c>
       <c r="T30">
         <v>0.6816138602361422</v>
       </c>
       <c r="U30">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y30">
-        <v>7.099005060961582</v>
+        <v>11.00744604958088</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3852,13 +3852,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.06431565853803675</v>
+        <v>0.06033167339781279</v>
       </c>
       <c r="C31">
-        <v>40.5027007466979</v>
+        <v>40.21328311948612</v>
       </c>
       <c r="D31">
-        <v>46.3807007466979</v>
+        <v>46.09128311948612</v>
       </c>
       <c r="E31">
         <v>-1.171999999999999</v>
@@ -3885,45 +3885,45 @@
         <v>2.37</v>
       </c>
       <c r="M31">
-        <v>0.3457728</v>
+        <v>0.2505599999999999</v>
       </c>
       <c r="N31">
-        <v>2.0242272</v>
+        <v>2.11944</v>
       </c>
       <c r="O31">
-        <v>0.4453299840000001</v>
+        <v>0.4662768</v>
       </c>
       <c r="P31">
-        <v>1.578897216</v>
+        <v>1.6531632</v>
       </c>
       <c r="Q31">
-        <v>1.608897216</v>
+        <v>1.6831632</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.08179230780005176</v>
+        <v>0.07860235689832787</v>
       </c>
       <c r="T31">
         <v>0.6895935621408555</v>
       </c>
       <c r="U31">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y31">
-        <v>6.854211782997392</v>
+        <v>9.4588122605364</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3934,13 +3934,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.06426283387580252</v>
+        <v>0.06027904609437848</v>
       </c>
       <c r="C32">
-        <v>40.12125587637541</v>
+        <v>39.8288646285225</v>
       </c>
       <c r="D32">
-        <v>46.43125587637541</v>
+        <v>46.1388646285225</v>
       </c>
       <c r="E32">
         <v>-0.7399999999999984</v>
@@ -3967,45 +3967,45 @@
         <v>2.37</v>
       </c>
       <c r="M32">
-        <v>0.357696</v>
+        <v>0.2592</v>
       </c>
       <c r="N32">
-        <v>2.012304</v>
+        <v>2.1108</v>
       </c>
       <c r="O32">
-        <v>0.4427068800000001</v>
+        <v>0.4643760000000001</v>
       </c>
       <c r="P32">
-        <v>1.56959712</v>
+        <v>1.646424</v>
       </c>
       <c r="Q32">
-        <v>1.59959712</v>
+        <v>1.676424</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.08257776267971789</v>
+        <v>0.07942720870625498</v>
       </c>
       <c r="T32">
         <v>0.6978012555285606</v>
       </c>
       <c r="U32">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y32">
-        <v>6.625738056897478</v>
+        <v>9.143518518518519</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4016,13 +4016,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.06421000921356829</v>
+        <v>0.06022641879094419</v>
       </c>
       <c r="C33">
-        <v>39.73992133685819</v>
+        <v>39.44454447891383</v>
       </c>
       <c r="D33">
-        <v>46.48192133685819</v>
+        <v>46.18654447891384</v>
       </c>
       <c r="E33">
         <v>-0.3079999999999981</v>
@@ -4049,45 +4049,45 @@
         <v>2.37</v>
       </c>
       <c r="M33">
-        <v>0.3696192</v>
+        <v>0.26784</v>
       </c>
       <c r="N33">
-        <v>2.0003808</v>
+        <v>2.10216</v>
       </c>
       <c r="O33">
-        <v>0.4400837760000001</v>
+        <v>0.4624752</v>
       </c>
       <c r="P33">
-        <v>1.560297024</v>
+        <v>1.6396848</v>
       </c>
       <c r="Q33">
-        <v>1.590297024</v>
+        <v>1.6696848</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.08338598436749028</v>
+        <v>0.08027596926223796</v>
       </c>
       <c r="T33">
         <v>0.7062468530724312</v>
       </c>
       <c r="U33">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y33">
-        <v>6.412004571191107</v>
+        <v>8.848566308243729</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.06453158455133408</v>
+        <v>0.06017379148750989</v>
       </c>
       <c r="C34">
-        <v>39.00119132404366</v>
+        <v>39.06032297585307</v>
       </c>
       <c r="D34">
-        <v>46.17519132404366</v>
+        <v>46.23432297585307</v>
       </c>
       <c r="E34">
         <v>0.1240000000000023</v>
@@ -4131,45 +4131,45 @@
         <v>2.37</v>
       </c>
       <c r="M34">
-        <v>0.4022784</v>
+        <v>0.27648</v>
       </c>
       <c r="N34">
-        <v>1.9677216</v>
+        <v>2.09352</v>
       </c>
       <c r="O34">
-        <v>0.432898752</v>
+        <v>0.4605744000000001</v>
       </c>
       <c r="P34">
-        <v>1.534822848</v>
+        <v>1.6329456</v>
       </c>
       <c r="Q34">
-        <v>1.564822848</v>
+        <v>1.6629456</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.08421797728137365</v>
+        <v>0.08114969336398514</v>
       </c>
       <c r="T34">
         <v>0.7149408505440625</v>
       </c>
       <c r="U34">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y34">
-        <v>5.891442344406261</v>
+        <v>8.572048611111111</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.06449045988909985</v>
+        <v>0.06012116418407559</v>
       </c>
       <c r="C35">
-        <v>38.60819155429671</v>
+        <v>38.67620042579728</v>
       </c>
       <c r="D35">
-        <v>46.21419155429671</v>
+        <v>46.28220042579728</v>
       </c>
       <c r="E35">
         <v>0.5560000000000027</v>
@@ -4213,45 +4213,45 @@
         <v>2.37</v>
       </c>
       <c r="M35">
-        <v>0.4148496000000001</v>
+        <v>0.28512</v>
       </c>
       <c r="N35">
-        <v>1.9551504</v>
+        <v>2.08488</v>
       </c>
       <c r="O35">
-        <v>0.430133088</v>
+        <v>0.4586736</v>
       </c>
       <c r="P35">
-        <v>1.525017312</v>
+        <v>1.6262064</v>
       </c>
       <c r="Q35">
-        <v>1.555017312</v>
+        <v>1.6562064</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.08507480580462665</v>
+        <v>0.08204949878220238</v>
       </c>
       <c r="T35">
         <v>0.7238943703282799</v>
       </c>
       <c r="U35">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y35">
-        <v>5.712913788515162</v>
+        <v>8.312289562289564</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4262,13 +4262,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.06444933522686562</v>
+        <v>0.06006853688064129</v>
       </c>
       <c r="C36">
-        <v>38.21525772055028</v>
+        <v>38.29217713647426</v>
       </c>
       <c r="D36">
-        <v>46.25325772055029</v>
+        <v>46.33017713647426</v>
       </c>
       <c r="E36">
         <v>0.9880000000000031</v>
@@ -4295,45 +4295,45 @@
         <v>2.37</v>
       </c>
       <c r="M36">
-        <v>0.4274208000000001</v>
+        <v>0.29376</v>
       </c>
       <c r="N36">
-        <v>1.9425792</v>
+        <v>2.07624</v>
       </c>
       <c r="O36">
-        <v>0.427367424</v>
+        <v>0.4567728000000001</v>
       </c>
       <c r="P36">
-        <v>1.515211776</v>
+        <v>1.6194672</v>
       </c>
       <c r="Q36">
-        <v>1.545211776</v>
+        <v>1.6494672</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.08595759882858428</v>
+        <v>0.08297657103127469</v>
       </c>
       <c r="T36">
         <v>0.7331192088938372</v>
       </c>
       <c r="U36">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y36">
-        <v>5.544886912382363</v>
+        <v>8.067810457516341</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4344,13 +4344,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.0644082105646314</v>
+        <v>0.06031620957720701</v>
       </c>
       <c r="C37">
-        <v>37.82238999015853</v>
+        <v>37.63525411693097</v>
       </c>
       <c r="D37">
-        <v>46.29238999015854</v>
+        <v>46.10525411693098</v>
       </c>
       <c r="E37">
         <v>1.420000000000003</v>
@@ -4377,45 +4377,45 @@
         <v>2.37</v>
       </c>
       <c r="M37">
-        <v>0.4399920000000001</v>
+        <v>0.3190320000000001</v>
       </c>
       <c r="N37">
-        <v>1.930008</v>
+        <v>2.050968</v>
       </c>
       <c r="O37">
-        <v>0.42460176</v>
+        <v>0.4512129600000001</v>
       </c>
       <c r="P37">
-        <v>1.50540624</v>
+        <v>1.59975504</v>
       </c>
       <c r="Q37">
-        <v>1.53540624</v>
+        <v>1.62975504</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.08686755471481755</v>
+        <v>0.08393216858031848</v>
       </c>
       <c r="T37">
         <v>0.7426278886460271</v>
       </c>
       <c r="U37">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y37">
-        <v>5.386461572028582</v>
+        <v>7.428721883698185</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4426,13 +4426,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.06436708590239718</v>
+        <v>0.06027216227377271</v>
       </c>
       <c r="C38">
-        <v>37.42958853104251</v>
+        <v>37.243095709428</v>
       </c>
       <c r="D38">
-        <v>46.33158853104251</v>
+        <v>46.145095709428</v>
       </c>
       <c r="E38">
         <v>1.852</v>
@@ -4459,45 +4459,45 @@
         <v>2.37</v>
       </c>
       <c r="M38">
-        <v>0.4525632</v>
+        <v>0.3281472</v>
       </c>
       <c r="N38">
-        <v>1.9174368</v>
+        <v>2.0418528</v>
       </c>
       <c r="O38">
-        <v>0.421836096</v>
+        <v>0.449207616</v>
       </c>
       <c r="P38">
-        <v>1.495600704</v>
+        <v>1.592645184</v>
       </c>
       <c r="Q38">
-        <v>1.525600704</v>
+        <v>1.622645184</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.08780594672249559</v>
+        <v>0.08491762855276985</v>
       </c>
       <c r="T38">
         <v>0.7524337146404728</v>
       </c>
       <c r="U38">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y38">
-        <v>5.236837639472233</v>
+        <v>7.222368498039904</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4508,13 +4508,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.06432596124016296</v>
+        <v>0.06022811497033841</v>
       </c>
       <c r="C39">
-        <v>37.03685351169243</v>
+        <v>36.85100621924958</v>
       </c>
       <c r="D39">
-        <v>46.37085351169243</v>
+        <v>46.18500621924958</v>
       </c>
       <c r="E39">
         <v>2.284000000000001</v>
@@ -4541,45 +4541,45 @@
         <v>2.37</v>
       </c>
       <c r="M39">
-        <v>0.4651344</v>
+        <v>0.3372624</v>
       </c>
       <c r="N39">
-        <v>1.9048656</v>
+        <v>2.0327376</v>
       </c>
       <c r="O39">
-        <v>0.419070432</v>
+        <v>0.447202272</v>
       </c>
       <c r="P39">
-        <v>1.485795168</v>
+        <v>1.585535328</v>
       </c>
       <c r="Q39">
-        <v>1.515795168</v>
+        <v>1.615535328</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.08877412895263961</v>
+        <v>0.08593437296879113</v>
       </c>
       <c r="T39">
         <v>0.7625508366982343</v>
       </c>
       <c r="U39">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y39">
-        <v>5.095301487054065</v>
+        <v>7.027169349444231</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4590,13 +4590,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.06428483657792873</v>
+        <v>0.06018406766690412</v>
       </c>
       <c r="C40">
-        <v>36.64418510117024</v>
+        <v>36.45898582536854</v>
       </c>
       <c r="D40">
-        <v>46.41018510117024</v>
+        <v>46.22498582536855</v>
       </c>
       <c r="E40">
         <v>2.716000000000001</v>
@@ -4623,45 +4623,45 @@
         <v>2.37</v>
       </c>
       <c r="M40">
-        <v>0.4777056</v>
+        <v>0.3463776</v>
       </c>
       <c r="N40">
-        <v>1.8922944</v>
+        <v>2.0236224</v>
       </c>
       <c r="O40">
-        <v>0.416304768</v>
+        <v>0.445196928</v>
       </c>
       <c r="P40">
-        <v>1.475989632</v>
+        <v>1.578425472</v>
       </c>
       <c r="Q40">
-        <v>1.505989632</v>
+        <v>1.608425472</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.08977354286762698</v>
+        <v>0.08698391559178083</v>
       </c>
       <c r="T40">
         <v>0.7729943175320526</v>
       </c>
       <c r="U40">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y40">
-        <v>4.961214605815799</v>
+        <v>6.842243840248331</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4672,13 +4672,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.0642437119156945</v>
+        <v>0.06014002036346981</v>
       </c>
       <c r="C41">
-        <v>36.25158346911188</v>
+        <v>36.06703470737803</v>
       </c>
       <c r="D41">
-        <v>46.44958346911188</v>
+        <v>46.26503470737804</v>
       </c>
       <c r="E41">
         <v>3.148000000000003</v>
@@ -4705,45 +4705,45 @@
         <v>2.37</v>
       </c>
       <c r="M41">
-        <v>0.4902768000000001</v>
+        <v>0.3554928000000001</v>
       </c>
       <c r="N41">
-        <v>1.8797232</v>
+        <v>2.0145072</v>
       </c>
       <c r="O41">
-        <v>0.413539104</v>
+        <v>0.443191584</v>
       </c>
       <c r="P41">
-        <v>1.466184096</v>
+        <v>1.571315616</v>
       </c>
       <c r="Q41">
-        <v>1.496184096</v>
+        <v>1.601315616</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.0908057244519582</v>
+        <v>0.08806786944831117</v>
       </c>
       <c r="T41">
         <v>0.7837802075735372</v>
       </c>
       <c r="U41">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y41">
-        <v>4.834003974897445</v>
+        <v>6.666801690498373</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4754,13 +4754,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.06420258725346027</v>
+        <v>0.06009597306003552</v>
       </c>
       <c r="C42">
-        <v>35.85904878572987</v>
+        <v>35.67515304549404</v>
       </c>
       <c r="D42">
-        <v>46.48904878572987</v>
+        <v>46.30515304549404</v>
       </c>
       <c r="E42">
         <v>3.580000000000002</v>
@@ -4787,45 +4787,45 @@
         <v>2.37</v>
       </c>
       <c r="M42">
-        <v>0.5028480000000001</v>
+        <v>0.364608</v>
       </c>
       <c r="N42">
-        <v>1.867152</v>
+        <v>2.005392</v>
       </c>
       <c r="O42">
-        <v>0.41077344</v>
+        <v>0.44118624</v>
       </c>
       <c r="P42">
-        <v>1.45637856</v>
+        <v>1.56420576</v>
       </c>
       <c r="Q42">
-        <v>1.48637856</v>
+        <v>1.59420576</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.09187231208910046</v>
+        <v>0.0891879551000592</v>
       </c>
       <c r="T42">
         <v>0.7949256272830711</v>
       </c>
       <c r="U42">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y42">
-        <v>4.713153875525009</v>
+        <v>6.500131648235913</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4836,13 +4836,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.06416146259122606</v>
+        <v>0.06053162575660122</v>
       </c>
       <c r="C43">
-        <v>35.46658122181566</v>
+        <v>34.84939304878814</v>
       </c>
       <c r="D43">
-        <v>46.52858122181566</v>
+        <v>45.91139304878814</v>
       </c>
       <c r="E43">
         <v>4.012000000000004</v>
@@ -4869,37 +4869,37 @@
         <v>2.37</v>
       </c>
       <c r="M43">
-        <v>0.5154192000000001</v>
+        <v>0.4002912000000001</v>
       </c>
       <c r="N43">
-        <v>1.8545808</v>
+        <v>1.9697088</v>
       </c>
       <c r="O43">
-        <v>0.408007776</v>
+        <v>0.433335936</v>
       </c>
       <c r="P43">
-        <v>1.446573024</v>
+        <v>1.536372864</v>
       </c>
       <c r="Q43">
-        <v>1.476573024</v>
+        <v>1.566372864</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.09297505523936619</v>
+        <v>0.09034600975695123</v>
       </c>
       <c r="T43">
         <v>0.8064488578302165</v>
       </c>
       <c r="U43">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>4.598198902951228</v>
+        <v>5.92068973787083</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4918,13 +4918,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.06883777792899183</v>
+        <v>0.06049927845316694</v>
       </c>
       <c r="C44">
-        <v>30.9321786229858</v>
+        <v>34.44639950760764</v>
       </c>
       <c r="D44">
-        <v>42.4261786229858</v>
+        <v>45.94039950760764</v>
       </c>
       <c r="E44">
         <v>4.444000000000003</v>
@@ -4951,45 +4951,45 @@
         <v>2.37</v>
       </c>
       <c r="M44">
-        <v>0.7892640000000001</v>
+        <v>0.4100544</v>
       </c>
       <c r="N44">
-        <v>1.580736</v>
+        <v>1.9599456</v>
       </c>
       <c r="O44">
-        <v>0.34776192</v>
+        <v>0.4311880320000001</v>
       </c>
       <c r="P44">
-        <v>1.23297408</v>
+        <v>1.528757568</v>
       </c>
       <c r="Q44">
-        <v>1.26297408</v>
+        <v>1.558757568</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.09411582401550314</v>
+        <v>0.09154399733304643</v>
       </c>
       <c r="T44">
         <v>0.8183694411548496</v>
       </c>
       <c r="U44">
-        <v>0.0435</v>
+        <v>0.0226</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.03393</v>
+        <v>0.017628</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y44">
-        <v>3.002797543027428</v>
+        <v>5.779720934588191</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5000,13 +5000,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.07954115326675761</v>
+        <v>0.06046693114973264</v>
       </c>
       <c r="C45">
-        <v>23.37600074612055</v>
+        <v>34.04344264170565</v>
       </c>
       <c r="D45">
-        <v>35.30200074612055</v>
+        <v>45.96944264170565</v>
       </c>
       <c r="E45">
         <v>4.876000000000001</v>
@@ -5033,45 +5033,45 @@
         <v>2.37</v>
       </c>
       <c r="M45">
-        <v>1.3969152</v>
+        <v>0.4198176</v>
       </c>
       <c r="N45">
-        <v>0.9730848000000001</v>
+        <v>1.9501824</v>
       </c>
       <c r="O45">
-        <v>0.214078656</v>
+        <v>0.429040128</v>
       </c>
       <c r="P45">
-        <v>0.7590061440000001</v>
+        <v>1.521142272</v>
       </c>
       <c r="Q45">
-        <v>0.7890061439999999</v>
+        <v>1.551142272</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.0952966197662414</v>
+        <v>0.09278401956093445</v>
       </c>
       <c r="T45">
         <v>0.8307082905610488</v>
       </c>
       <c r="U45">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y45">
-        <v>1.696595469789433</v>
+        <v>5.645308819830327</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5082,13 +5082,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.07985960860452339</v>
+        <v>0.06043458384629834</v>
       </c>
       <c r="C46">
-        <v>22.76850622131291</v>
+        <v>33.64052252068358</v>
       </c>
       <c r="D46">
-        <v>35.12650622131292</v>
+        <v>45.99852252068358</v>
       </c>
       <c r="E46">
         <v>5.308000000000003</v>
@@ -5115,45 +5115,45 @@
         <v>2.37</v>
       </c>
       <c r="M46">
-        <v>1.4294016</v>
+        <v>0.4295808</v>
       </c>
       <c r="N46">
-        <v>0.9405983999999998</v>
+        <v>1.9404192</v>
       </c>
       <c r="O46">
-        <v>0.206931648</v>
+        <v>0.426892224</v>
       </c>
       <c r="P46">
-        <v>0.7336667519999999</v>
+        <v>1.513526976</v>
       </c>
       <c r="Q46">
-        <v>0.7636667519999997</v>
+        <v>1.543526976</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.09651958679379175</v>
+        <v>0.09406832829696132</v>
       </c>
       <c r="T46">
         <v>0.8434878131603265</v>
       </c>
       <c r="U46">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y46">
-        <v>1.658036481839673</v>
+        <v>5.517006346652364</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5164,13 +5164,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.08017806394228916</v>
+        <v>0.06040223654286404</v>
       </c>
       <c r="C47">
-        <v>22.16274791424007</v>
+        <v>33.23763921431905</v>
       </c>
       <c r="D47">
-        <v>34.95274791424007</v>
+        <v>46.02763921431905</v>
       </c>
       <c r="E47">
         <v>5.740000000000002</v>
@@ -5197,45 +5197,45 @@
         <v>2.37</v>
       </c>
       <c r="M47">
-        <v>1.461888</v>
+        <v>0.439344</v>
       </c>
       <c r="N47">
-        <v>0.908112</v>
+        <v>1.930656</v>
       </c>
       <c r="O47">
-        <v>0.19978464</v>
+        <v>0.42474432</v>
       </c>
       <c r="P47">
-        <v>0.70832736</v>
+        <v>1.50591168</v>
       </c>
       <c r="Q47">
-        <v>0.7383273599999998</v>
+        <v>1.53591168</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.09778702534961664</v>
+        <v>0.09539933916884372</v>
       </c>
       <c r="T47">
         <v>0.8567320456723052</v>
       </c>
       <c r="U47">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y47">
-        <v>1.621191226687681</v>
+        <v>5.394406205615645</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5246,13 +5246,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.08049651928005494</v>
+        <v>0.06036988923942975</v>
       </c>
       <c r="C48">
-        <v>21.55870018637563</v>
+        <v>32.83479279256649</v>
       </c>
       <c r="D48">
-        <v>34.78070018637563</v>
+        <v>46.05679279256649</v>
       </c>
       <c r="E48">
         <v>6.172000000000004</v>
@@ -5279,45 +5279,45 @@
         <v>2.37</v>
       </c>
       <c r="M48">
-        <v>1.4943744</v>
+        <v>0.4491072</v>
       </c>
       <c r="N48">
-        <v>0.8756255999999998</v>
+        <v>1.9208928</v>
       </c>
       <c r="O48">
-        <v>0.1926376319999999</v>
+        <v>0.422596416</v>
       </c>
       <c r="P48">
-        <v>0.6829879679999998</v>
+        <v>1.498296384</v>
       </c>
       <c r="Q48">
-        <v>0.7129879679999996</v>
+        <v>1.528296384</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.09910140607417581</v>
+        <v>0.09677964673968471</v>
       </c>
       <c r="T48">
         <v>0.8704668053143572</v>
       </c>
       <c r="U48">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y48">
-        <v>1.585947939150992</v>
+        <v>5.277136505493566</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.08081497461782071</v>
+        <v>0.06033754193599545</v>
       </c>
       <c r="C49">
-        <v>20.95633790152215</v>
+        <v>32.43198332555767</v>
       </c>
       <c r="D49">
-        <v>34.61033790152216</v>
+        <v>46.08598332555767</v>
       </c>
       <c r="E49">
         <v>6.604000000000003</v>
@@ -5361,45 +5361,45 @@
         <v>2.37</v>
       </c>
       <c r="M49">
-        <v>1.5268608</v>
+        <v>0.4588704</v>
       </c>
       <c r="N49">
-        <v>0.8431392</v>
+        <v>1.9111296</v>
       </c>
       <c r="O49">
-        <v>0.185490624</v>
+        <v>0.4204485120000001</v>
       </c>
       <c r="P49">
-        <v>0.6576485759999999</v>
+        <v>1.490681088</v>
       </c>
       <c r="Q49">
-        <v>0.6876485759999997</v>
+        <v>1.520681088</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1004653860713598</v>
+        <v>0.09821204138867065</v>
       </c>
       <c r="T49">
         <v>0.8847198577730904</v>
       </c>
       <c r="U49">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y49">
-        <v>1.552204365977567</v>
+        <v>5.164857005376682</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5410,13 +5410,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.08113342995558648</v>
+        <v>0.06030519463256116</v>
       </c>
       <c r="C50">
-        <v>20.35563641356861</v>
+        <v>32.02921088360227</v>
       </c>
       <c r="D50">
-        <v>34.44163641356861</v>
+        <v>46.11521088360228</v>
       </c>
       <c r="E50">
         <v>7.036000000000001</v>
@@ -5443,45 +5443,45 @@
         <v>2.37</v>
       </c>
       <c r="M50">
-        <v>1.5593472</v>
+        <v>0.4686336</v>
       </c>
       <c r="N50">
-        <v>0.8106528</v>
+        <v>1.9013664</v>
       </c>
       <c r="O50">
-        <v>0.178343616</v>
+        <v>0.418300608</v>
       </c>
       <c r="P50">
-        <v>0.6323091839999999</v>
+        <v>1.483065792</v>
       </c>
       <c r="Q50">
-        <v>0.6623091839999997</v>
+        <v>1.513065792</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1018818268376663</v>
+        <v>0.09969952813954068</v>
       </c>
       <c r="T50">
         <v>0.8995211045571595</v>
       </c>
       <c r="U50">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y50">
-        <v>1.5198667750197</v>
+        <v>5.057255817764668</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5492,13 +5492,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.0974012902432479</v>
+        <v>0.06027284732912686</v>
       </c>
       <c r="C51">
-        <v>13.05742476931427</v>
+        <v>31.62647553718848</v>
       </c>
       <c r="D51">
-        <v>27.57542476931427</v>
+        <v>46.14447553718848</v>
       </c>
       <c r="E51">
         <v>7.468</v>
@@ -5525,45 +5525,45 @@
         <v>2.37</v>
       </c>
       <c r="M51">
-        <v>2.444904</v>
+        <v>0.4783968</v>
       </c>
       <c r="N51">
-        <v>-0.07490399999999964</v>
+        <v>1.8916032</v>
       </c>
       <c r="O51">
-        <v>-0.01647887999999992</v>
+        <v>0.416152704</v>
       </c>
       <c r="P51">
-        <v>-0.05842511999999972</v>
+        <v>1.475450496</v>
       </c>
       <c r="Q51">
-        <v>-0.02842511999999991</v>
+        <v>1.505450496</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1036779111523379</v>
+        <v>0.1012453477041703</v>
       </c>
       <c r="T51">
-        <v>0.9182894765348816</v>
+        <v>0.9149027923915842</v>
       </c>
       <c r="U51">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V51">
-        <v>0.2132599071374582</v>
+        <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.09086848072562358</v>
+        <v>0.017628</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y51">
-        <v>0.9693632142611736</v>
+        <v>4.954046515361307</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5574,13 +5574,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.09839829024324789</v>
+        <v>0.06024050002569256</v>
       </c>
       <c r="C52">
-        <v>12.29257649347173</v>
+        <v>31.22377735698343</v>
       </c>
       <c r="D52">
-        <v>27.24257649347174</v>
+        <v>46.17377735698343</v>
       </c>
       <c r="E52">
         <v>7.900000000000002</v>
@@ -5607,45 +5607,45 @@
         <v>2.37</v>
       </c>
       <c r="M52">
-        <v>2.4948</v>
+        <v>0.48816</v>
       </c>
       <c r="N52">
-        <v>-0.1248</v>
+        <v>1.88184</v>
       </c>
       <c r="O52">
-        <v>-0.027456</v>
+        <v>0.4140048000000001</v>
       </c>
       <c r="P52">
-        <v>-0.09734400000000001</v>
+        <v>1.4678352</v>
       </c>
       <c r="Q52">
-        <v>-0.06734400000000021</v>
+        <v>1.4978352</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1054354693753847</v>
+        <v>0.1028530000513851</v>
       </c>
       <c r="T52">
-        <v>0.9366552660655793</v>
+        <v>0.930899747739386</v>
       </c>
       <c r="U52">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V52">
-        <v>0.208994708994709</v>
+        <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.09136111111111112</v>
+        <v>0.017628</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y52">
-        <v>0.9499759499759499</v>
+        <v>4.854965585054082</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5656,13 +5656,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.09939529024324786</v>
+        <v>0.06020815272225827</v>
       </c>
       <c r="C53">
-        <v>11.53566765369192</v>
+        <v>30.82111641383396</v>
       </c>
       <c r="D53">
-        <v>26.91766765369193</v>
+        <v>46.20311641383396</v>
       </c>
       <c r="E53">
         <v>8.332000000000004</v>
@@ -5689,45 +5689,45 @@
         <v>2.37</v>
       </c>
       <c r="M53">
-        <v>2.544696</v>
+        <v>0.4979232000000001</v>
       </c>
       <c r="N53">
-        <v>-0.174696</v>
+        <v>1.8720768</v>
       </c>
       <c r="O53">
-        <v>-0.03843311999999999</v>
+        <v>0.411856896</v>
       </c>
       <c r="P53">
-        <v>-0.13626288</v>
+        <v>1.460219904</v>
       </c>
       <c r="Q53">
-        <v>-0.1062628800000002</v>
+        <v>1.490219904</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1072647646687598</v>
+        <v>0.1045262708617516</v>
       </c>
       <c r="T53">
-        <v>0.9557706796587542</v>
+        <v>0.9475496400401593</v>
       </c>
       <c r="U53">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V53">
-        <v>0.2048967735242245</v>
+        <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.09183442265795207</v>
+        <v>0.017628</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y53">
-        <v>0.9313489705646568</v>
+        <v>4.759770181425569</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5738,13 +5738,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1003922902432479</v>
+        <v>0.06017580541882397</v>
       </c>
       <c r="C54">
-        <v>10.7864175287271</v>
+        <v>30.41849277876705</v>
       </c>
       <c r="D54">
-        <v>26.6004175287271</v>
+        <v>46.23249277876705</v>
       </c>
       <c r="E54">
         <v>8.764000000000003</v>
@@ -5771,45 +5771,45 @@
         <v>2.37</v>
       </c>
       <c r="M54">
-        <v>2.594592</v>
+        <v>0.5076864</v>
       </c>
       <c r="N54">
-        <v>-0.2245919999999999</v>
+        <v>1.8623136</v>
       </c>
       <c r="O54">
-        <v>-0.04941023999999998</v>
+        <v>0.409708992</v>
       </c>
       <c r="P54">
-        <v>-0.1751817599999999</v>
+        <v>1.452604608</v>
       </c>
       <c r="Q54">
-        <v>-0.1451817600000001</v>
+        <v>1.482604608</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.109170280599359</v>
+        <v>0.1062692612892166</v>
       </c>
       <c r="T54">
-        <v>0.9756825688183117</v>
+        <v>0.9648932778534648</v>
       </c>
       <c r="U54">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V54">
-        <v>0.200956450956451</v>
+        <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.09228952991452991</v>
+        <v>0.017628</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y54">
-        <v>0.9134384134384135</v>
+        <v>4.668236139475078</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5820,13 +5820,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1013892902432479</v>
+        <v>0.06014345811538967</v>
       </c>
       <c r="C55">
-        <v>10.04455847742794</v>
+        <v>30.01590652299044</v>
       </c>
       <c r="D55">
-        <v>26.29055847742794</v>
+        <v>46.26190652299045</v>
       </c>
       <c r="E55">
         <v>9.196000000000005</v>
@@ -5853,45 +5853,45 @@
         <v>2.37</v>
       </c>
       <c r="M55">
-        <v>2.644488</v>
+        <v>0.5174496000000001</v>
       </c>
       <c r="N55">
-        <v>-0.2744880000000003</v>
+        <v>1.8525504</v>
       </c>
       <c r="O55">
-        <v>-0.06038736000000006</v>
+        <v>0.407561088</v>
       </c>
       <c r="P55">
-        <v>-0.2141006400000002</v>
+        <v>1.444989312</v>
       </c>
       <c r="Q55">
-        <v>-0.1841006400000004</v>
+        <v>1.474989312</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.111156882314239</v>
+        <v>0.1080864215221057</v>
       </c>
       <c r="T55">
-        <v>0.9964417724101908</v>
+        <v>0.9829749428077619</v>
       </c>
       <c r="U55">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V55">
-        <v>0.1971648198063292</v>
+        <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.09272746331236897</v>
+        <v>0.017628</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y55">
-        <v>0.8962037263924055</v>
+        <v>4.58015621231517</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5902,13 +5902,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1023862902432479</v>
+        <v>0.09780674888031421</v>
       </c>
       <c r="C56">
-        <v>9.309835185687888</v>
+        <v>9.897547474017514</v>
       </c>
       <c r="D56">
-        <v>25.98783518568789</v>
+        <v>26.57554747401752</v>
       </c>
       <c r="E56">
         <v>9.628000000000004</v>
@@ -5935,37 +5935,37 @@
         <v>2.37</v>
       </c>
       <c r="M56">
-        <v>2.694384</v>
+        <v>2.542752</v>
       </c>
       <c r="N56">
-        <v>-0.3243840000000002</v>
+        <v>-0.172752</v>
       </c>
       <c r="O56">
-        <v>-0.07136448000000005</v>
+        <v>-0.03800544</v>
       </c>
       <c r="P56">
-        <v>-0.2530195200000002</v>
+        <v>-0.13474656</v>
       </c>
       <c r="Q56">
-        <v>-0.2230195200000004</v>
+        <v>-0.1047465600000002</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1132298580167225</v>
+        <v>0.1109047680973014</v>
       </c>
       <c r="T56">
-        <v>1.018103550071282</v>
+        <v>1.011018919104095</v>
       </c>
       <c r="U56">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V56">
-        <v>0.1935136194395453</v>
+        <v>0.2050534224336467</v>
       </c>
       <c r="W56">
-        <v>0.0931491769547325</v>
+        <v>0.08664917695473251</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.8796073610888425</v>
+        <v>0.9320610110620304</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5984,13 +5984,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1033832902432479</v>
+        <v>0.09880374888031423</v>
       </c>
       <c r="C57">
-        <v>8.582003964821773</v>
+        <v>9.169517182962032</v>
       </c>
       <c r="D57">
-        <v>25.69200396482178</v>
+        <v>26.27951718296204</v>
       </c>
       <c r="E57">
         <v>10.06000000000001</v>
@@ -6017,37 +6017,37 @@
         <v>2.37</v>
       </c>
       <c r="M57">
-        <v>2.74428</v>
+        <v>2.589840000000001</v>
       </c>
       <c r="N57">
-        <v>-0.3742800000000002</v>
+        <v>-0.2198400000000005</v>
       </c>
       <c r="O57">
-        <v>-0.08234160000000004</v>
+        <v>-0.0483648000000001</v>
       </c>
       <c r="P57">
-        <v>-0.2919384000000002</v>
+        <v>-0.1714752000000004</v>
       </c>
       <c r="Q57">
-        <v>-0.2619384000000003</v>
+        <v>-0.1414752000000006</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1153949659726496</v>
+        <v>0.1131626518327971</v>
       </c>
       <c r="T57">
-        <v>1.040728073406199</v>
+        <v>1.033486006195298</v>
       </c>
       <c r="U57">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V57">
-        <v>0.18999518999519</v>
+        <v>0.2013251783893985</v>
       </c>
       <c r="W57">
-        <v>0.09355555555555556</v>
+        <v>0.08705555555555555</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.8636144999781363</v>
+        <v>0.9151144472245388</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6066,13 +6066,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1043802902432479</v>
+        <v>0.09980074888031423</v>
       </c>
       <c r="C58">
-        <v>7.860832097326348</v>
+        <v>8.448009317496048</v>
       </c>
       <c r="D58">
-        <v>25.40283209732635</v>
+        <v>25.99000931749605</v>
       </c>
       <c r="E58">
         <v>10.492</v>
@@ -6099,37 +6099,37 @@
         <v>2.37</v>
       </c>
       <c r="M58">
-        <v>2.794176</v>
+        <v>2.636928000000001</v>
       </c>
       <c r="N58">
-        <v>-0.4241760000000001</v>
+        <v>-0.2669280000000005</v>
       </c>
       <c r="O58">
-        <v>-0.09331872000000002</v>
+        <v>-0.05872416000000011</v>
       </c>
       <c r="P58">
-        <v>-0.3308572800000001</v>
+        <v>-0.2082038400000004</v>
       </c>
       <c r="Q58">
-        <v>-0.3008572800000003</v>
+        <v>-0.1782038400000006</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1176584879265735</v>
+        <v>0.1155231666471788</v>
       </c>
       <c r="T58">
-        <v>1.064380984165431</v>
+        <v>1.056974324517918</v>
       </c>
       <c r="U58">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V58">
-        <v>0.1866024187452759</v>
+        <v>0.1977300859181593</v>
       </c>
       <c r="W58">
-        <v>0.09394742063492062</v>
+        <v>0.08744742063492064</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.8481928124785267</v>
+        <v>0.8987731178098148</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6148,13 +6148,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1053772902432479</v>
+        <v>0.1007977488803142</v>
       </c>
       <c r="C59">
-        <v>7.146097226331026</v>
+        <v>7.732810663904704</v>
       </c>
       <c r="D59">
-        <v>25.12009722633103</v>
+        <v>25.70681066390471</v>
       </c>
       <c r="E59">
         <v>10.92400000000001</v>
@@ -6181,37 +6181,37 @@
         <v>2.37</v>
       </c>
       <c r="M59">
-        <v>2.844072000000001</v>
+        <v>2.684016000000001</v>
       </c>
       <c r="N59">
-        <v>-0.4740720000000005</v>
+        <v>-0.3140160000000005</v>
       </c>
       <c r="O59">
-        <v>-0.1042958400000001</v>
+        <v>-0.06908352000000012</v>
       </c>
       <c r="P59">
-        <v>-0.3697761600000004</v>
+        <v>-0.2449324800000004</v>
       </c>
       <c r="Q59">
-        <v>-0.3397761600000005</v>
+        <v>-0.2149324800000006</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1200272899713775</v>
+        <v>0.117993472848276</v>
       </c>
       <c r="T59">
-        <v>1.089134030308813</v>
+        <v>1.08155512276252</v>
       </c>
       <c r="U59">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V59">
-        <v>0.1833286921006219</v>
+        <v>0.1942611370424021</v>
       </c>
       <c r="W59">
-        <v>0.09432553606237817</v>
+        <v>0.08782553606237817</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.8333122368210086</v>
+        <v>0.883005168374555</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1063742902432479</v>
+        <v>0.1017947488803142</v>
       </c>
       <c r="C60">
-        <v>6.437586785372662</v>
+        <v>7.023717201387424</v>
       </c>
       <c r="D60">
-        <v>24.84358678537266</v>
+        <v>25.42971720138743</v>
       </c>
       <c r="E60">
         <v>11.356</v>
@@ -6263,37 +6263,37 @@
         <v>2.37</v>
       </c>
       <c r="M60">
-        <v>2.893968</v>
+        <v>2.731104</v>
       </c>
       <c r="N60">
-        <v>-0.523968</v>
+        <v>-0.3611040000000001</v>
       </c>
       <c r="O60">
-        <v>-0.11527296</v>
+        <v>-0.07944288000000002</v>
       </c>
       <c r="P60">
-        <v>-0.40869504</v>
+        <v>-0.2816611200000001</v>
       </c>
       <c r="Q60">
-        <v>-0.3786950400000002</v>
+        <v>-0.2516611200000003</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1225088921135531</v>
+        <v>0.1205814126779968</v>
       </c>
       <c r="T60">
-        <v>1.115065792935213</v>
+        <v>1.107306435209247</v>
       </c>
       <c r="U60">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V60">
-        <v>0.1801678525816457</v>
+        <v>0.1909118070933952</v>
       </c>
       <c r="W60">
-        <v>0.09469061302681991</v>
+        <v>0.08819061302681992</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.8189447844620259</v>
+        <v>0.8677809413336145</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6312,13 +6312,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1073712902432479</v>
+        <v>0.1027917488803142</v>
       </c>
       <c r="C61">
-        <v>5.735097465420743</v>
+        <v>6.320533611889708</v>
       </c>
       <c r="D61">
-        <v>24.57309746542074</v>
+        <v>25.15853361188971</v>
       </c>
       <c r="E61">
         <v>11.788</v>
@@ -6345,37 +6345,37 @@
         <v>2.37</v>
       </c>
       <c r="M61">
-        <v>2.943864</v>
+        <v>2.778192</v>
       </c>
       <c r="N61">
-        <v>-0.5738639999999995</v>
+        <v>-0.4081919999999997</v>
       </c>
       <c r="O61">
-        <v>-0.1262500799999999</v>
+        <v>-0.08980223999999992</v>
       </c>
       <c r="P61">
-        <v>-0.4476139199999996</v>
+        <v>-0.3183897599999997</v>
       </c>
       <c r="Q61">
-        <v>-0.4176139199999998</v>
+        <v>-0.2883897599999999</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1251115480187618</v>
+        <v>0.1232955934750211</v>
       </c>
       <c r="T61">
-        <v>1.14226251959217</v>
+        <v>1.134313909238741</v>
       </c>
       <c r="U61">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V61">
-        <v>0.1771141601650076</v>
+        <v>0.1876760137528292</v>
       </c>
       <c r="W61">
-        <v>0.0950433145009416</v>
+        <v>0.08854331450094161</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.8050643643863984</v>
+        <v>0.8530727897855873</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1282005668521113</v>
+        <v>0.1037887488803142</v>
       </c>
       <c r="C62">
-        <v>0.7493851614850087</v>
+        <v>5.62307282096711</v>
       </c>
       <c r="D62">
-        <v>20.01938516148501</v>
+        <v>24.89307282096711</v>
       </c>
       <c r="E62">
         <v>12.22</v>
@@ -6427,45 +6427,45 @@
         <v>2.37</v>
       </c>
       <c r="M62">
-        <v>3.802464</v>
+        <v>2.82528</v>
       </c>
       <c r="N62">
-        <v>-1.432464</v>
+        <v>-0.4552800000000001</v>
       </c>
       <c r="O62">
-        <v>-0.31514208</v>
+        <v>-0.1001616</v>
       </c>
       <c r="P62">
-        <v>-1.11732192</v>
+        <v>-0.3551184000000001</v>
       </c>
       <c r="Q62">
-        <v>-1.08732192</v>
+        <v>-0.3251184000000003</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1306250282413895</v>
+        <v>0.1261454833118967</v>
       </c>
       <c r="T62">
-        <v>1.199876211145961</v>
+        <v>1.162671756969709</v>
       </c>
       <c r="U62">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V62">
-        <v>0.1371216137746472</v>
+        <v>0.184548080190282</v>
       </c>
       <c r="W62">
-        <v>0.1265842592592593</v>
+        <v>0.08888425925925926</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y62">
-        <v>0.6232800626120326</v>
+        <v>0.8388549099558273</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6476,13 +6476,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1295095668521113</v>
+        <v>0.1047857488803142</v>
       </c>
       <c r="C63">
-        <v>0.08692631882257373</v>
+        <v>4.93115556741326</v>
       </c>
       <c r="D63">
-        <v>19.78892631882258</v>
+        <v>24.63315556741326</v>
       </c>
       <c r="E63">
         <v>12.652</v>
@@ -6509,45 +6509,45 @@
         <v>2.37</v>
       </c>
       <c r="M63">
-        <v>3.8658384</v>
+        <v>2.872368</v>
       </c>
       <c r="N63">
-        <v>-1.4958384</v>
+        <v>-0.5023679999999997</v>
       </c>
       <c r="O63">
-        <v>-0.329084448</v>
+        <v>-0.1105209599999999</v>
       </c>
       <c r="P63">
-        <v>-1.166753952</v>
+        <v>-0.3918470399999998</v>
       </c>
       <c r="Q63">
-        <v>-1.136753952</v>
+        <v>-0.36184704</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1335692597347585</v>
+        <v>0.129141521345535</v>
       </c>
       <c r="T63">
-        <v>1.230642267842011</v>
+        <v>1.192483853302266</v>
       </c>
       <c r="U63">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V63">
-        <v>0.1348737184668661</v>
+        <v>0.1815227018265069</v>
       </c>
       <c r="W63">
-        <v>0.1269140255009107</v>
+        <v>0.08921402550091075</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y63">
-        <v>0.6130623566675731</v>
+        <v>0.8251031901204861</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6558,13 +6558,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1308185668521114</v>
+        <v>0.1057827488803142</v>
       </c>
       <c r="C64">
-        <v>-0.5702869250934803</v>
+        <v>4.244609999571107</v>
       </c>
       <c r="D64">
-        <v>19.56371307490652</v>
+        <v>24.37860999957111</v>
       </c>
       <c r="E64">
         <v>13.084</v>
@@ -6591,45 +6591,45 @@
         <v>2.37</v>
       </c>
       <c r="M64">
-        <v>3.9292128</v>
+        <v>2.919456</v>
       </c>
       <c r="N64">
-        <v>-1.5592128</v>
+        <v>-0.5494560000000002</v>
       </c>
       <c r="O64">
-        <v>-0.343026816</v>
+        <v>-0.12088032</v>
       </c>
       <c r="P64">
-        <v>-1.216185984</v>
+        <v>-0.4285756800000001</v>
       </c>
       <c r="Q64">
-        <v>-1.186185984</v>
+        <v>-0.3985756800000003</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.13666845078041</v>
+        <v>0.1322952455914702</v>
       </c>
       <c r="T64">
-        <v>1.263027590679959</v>
+        <v>1.223865007336536</v>
       </c>
       <c r="U64">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V64">
-        <v>0.1326983359109489</v>
+        <v>0.1785949163131761</v>
       </c>
       <c r="W64">
-        <v>0.1272331541218638</v>
+        <v>0.0895331541218638</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y64">
-        <v>0.6031742541406767</v>
+        <v>0.8117950741508007</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6640,13 +6640,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1321275668521114</v>
+        <v>0.1277308541757967</v>
       </c>
       <c r="C65">
-        <v>-1.222431651816848</v>
+        <v>-0.7053368053539657</v>
       </c>
       <c r="D65">
-        <v>19.34356834818315</v>
+        <v>19.86066319464604</v>
       </c>
       <c r="E65">
         <v>13.516</v>
@@ -6673,37 +6673,37 @@
         <v>2.37</v>
       </c>
       <c r="M65">
-        <v>3.9925872</v>
+        <v>3.8156832</v>
       </c>
       <c r="N65">
-        <v>-1.6225872</v>
+        <v>-1.4456832</v>
       </c>
       <c r="O65">
-        <v>-0.356969184</v>
+        <v>-0.318050304</v>
       </c>
       <c r="P65">
-        <v>-1.265618016</v>
+        <v>-1.127632896</v>
       </c>
       <c r="Q65">
-        <v>-1.235618016</v>
+        <v>-1.097632896</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.139935165666367</v>
+        <v>0.1391197260006516</v>
       </c>
       <c r="T65">
-        <v>1.297163471509147</v>
+        <v>1.29177204492881</v>
       </c>
       <c r="U65">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V65">
-        <v>0.1305920131187116</v>
+        <v>0.1366465643688658</v>
       </c>
       <c r="W65">
-        <v>0.127542151675485</v>
+        <v>0.121042151675485</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.5936000596305073</v>
+        <v>0.6211207471312084</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6722,13 +6722,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1334365668521114</v>
+        <v>0.1290398541757967</v>
       </c>
       <c r="C66">
-        <v>-1.869677061006698</v>
+        <v>-1.354454224618756</v>
       </c>
       <c r="D66">
-        <v>19.1283229389933</v>
+        <v>19.64354577538125</v>
       </c>
       <c r="E66">
         <v>13.948</v>
@@ -6755,37 +6755,37 @@
         <v>2.37</v>
       </c>
       <c r="M66">
-        <v>4.055961600000001</v>
+        <v>3.8762496</v>
       </c>
       <c r="N66">
-        <v>-1.685961600000001</v>
+        <v>-1.5062496</v>
       </c>
       <c r="O66">
-        <v>-0.3709115520000001</v>
+        <v>-0.3313749120000001</v>
       </c>
       <c r="P66">
-        <v>-1.315050048</v>
+        <v>-1.174874688</v>
       </c>
       <c r="Q66">
-        <v>-1.285050048000001</v>
+        <v>-1.144874688</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.143383364712655</v>
+        <v>0.1427258295006698</v>
       </c>
       <c r="T66">
-        <v>1.333195790162179</v>
+        <v>1.327654601732389</v>
       </c>
       <c r="U66">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V66">
-        <v>0.1285515129137317</v>
+        <v>0.1345114618006023</v>
       </c>
       <c r="W66">
-        <v>0.1278414930555556</v>
+        <v>0.1213414930555556</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.5843250586987805</v>
+        <v>0.6114157354572832</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6804,13 +6804,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1347455668521114</v>
+        <v>0.1303488541757967</v>
       </c>
       <c r="C67">
-        <v>-2.512184904130212</v>
+        <v>-1.998875908368287</v>
       </c>
       <c r="D67">
-        <v>18.91781509586979</v>
+        <v>19.43112409163171</v>
       </c>
       <c r="E67">
         <v>14.38</v>
@@ -6837,37 +6837,37 @@
         <v>2.37</v>
       </c>
       <c r="M67">
-        <v>4.119336000000001</v>
+        <v>3.936816</v>
       </c>
       <c r="N67">
-        <v>-1.749336</v>
+        <v>-1.566816</v>
       </c>
       <c r="O67">
-        <v>-0.3848539200000001</v>
+        <v>-0.3446995199999999</v>
       </c>
       <c r="P67">
-        <v>-1.36448208</v>
+        <v>-1.22211648</v>
       </c>
       <c r="Q67">
-        <v>-1.334482080000001</v>
+        <v>-1.19211648</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1470286037044452</v>
+        <v>0.1465379960578318</v>
       </c>
       <c r="T67">
-        <v>1.371287098452527</v>
+        <v>1.365587590353314</v>
       </c>
       <c r="U67">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V67">
-        <v>0.1265737973304435</v>
+        <v>0.1324420546959777</v>
       </c>
       <c r="W67">
-        <v>0.1281316239316239</v>
+        <v>0.1216316239316239</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.575335442411107</v>
+        <v>0.6020093395271713</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6886,13 +6886,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1360545668521114</v>
+        <v>0.1316578541757967</v>
       </c>
       <c r="C68">
-        <v>-3.150109889839474</v>
+        <v>-2.63875256334298</v>
       </c>
       <c r="D68">
-        <v>18.71189011016053</v>
+        <v>19.22324743665702</v>
       </c>
       <c r="E68">
         <v>14.812</v>
@@ -6919,37 +6919,37 @@
         <v>2.37</v>
       </c>
       <c r="M68">
-        <v>4.1827104</v>
+        <v>3.9973824</v>
       </c>
       <c r="N68">
-        <v>-1.8127104</v>
+        <v>-1.6273824</v>
       </c>
       <c r="O68">
-        <v>-0.3987962880000001</v>
+        <v>-0.3580241280000001</v>
       </c>
       <c r="P68">
-        <v>-1.413914112</v>
+        <v>-1.269358272</v>
       </c>
       <c r="Q68">
-        <v>-1.383914112</v>
+        <v>-1.239358272</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1508882685192818</v>
+        <v>0.1505744077065915</v>
       </c>
       <c r="T68">
-        <v>1.411619071936424</v>
+        <v>1.405751931246058</v>
       </c>
       <c r="U68">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V68">
-        <v>0.1246560125224065</v>
+        <v>0.1304353568975538</v>
       </c>
       <c r="W68">
-        <v>0.128412962962963</v>
+        <v>0.1219129629629629</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.5666182387382115</v>
+        <v>0.5928879858979716</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6968,13 +6968,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.1373635668521113</v>
+        <v>0.1329668541757967</v>
       </c>
       <c r="C69">
-        <v>-3.783600063157579</v>
+        <v>-3.274228515426422</v>
       </c>
       <c r="D69">
-        <v>18.51039993684242</v>
+        <v>19.01977148457358</v>
       </c>
       <c r="E69">
         <v>15.244</v>
@@ -7001,37 +7001,37 @@
         <v>2.37</v>
       </c>
       <c r="M69">
-        <v>4.2460848</v>
+        <v>4.0579488</v>
       </c>
       <c r="N69">
-        <v>-1.8760848</v>
+        <v>-1.6879488</v>
       </c>
       <c r="O69">
-        <v>-0.412738656</v>
+        <v>-0.371348736</v>
       </c>
       <c r="P69">
-        <v>-1.463346144</v>
+        <v>-1.316600064</v>
       </c>
       <c r="Q69">
-        <v>-1.433346144</v>
+        <v>-1.286600064</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.1549818524138055</v>
+        <v>0.154855450364367</v>
       </c>
       <c r="T69">
-        <v>1.454395407449649</v>
+        <v>1.448350474617151</v>
       </c>
       <c r="U69">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V69">
-        <v>0.1227954750220721</v>
+        <v>0.1284885605259485</v>
       </c>
       <c r="W69">
-        <v>0.128685903814262</v>
+        <v>0.122185903814262</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.5581612501003277</v>
+        <v>0.584038911481584</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7050,13 +7050,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1386725668521114</v>
+        <v>0.1342758541757967</v>
       </c>
       <c r="C70">
-        <v>-4.412797160427395</v>
+        <v>-3.905442043811561</v>
       </c>
       <c r="D70">
-        <v>18.31320283957261</v>
+        <v>18.82055795618844</v>
       </c>
       <c r="E70">
         <v>15.67600000000001</v>
@@ -7083,37 +7083,37 @@
         <v>2.37</v>
       </c>
       <c r="M70">
-        <v>4.309459200000001</v>
+        <v>4.1185152</v>
       </c>
       <c r="N70">
-        <v>-1.939459200000001</v>
+        <v>-1.7485152</v>
       </c>
       <c r="O70">
-        <v>-0.4266810240000002</v>
+        <v>-0.384673344</v>
       </c>
       <c r="P70">
-        <v>-1.512778176000001</v>
+        <v>-1.363841856</v>
       </c>
       <c r="Q70">
-        <v>-1.482778176000001</v>
+        <v>-1.333841856</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.1593312853017369</v>
+        <v>0.1594040581882535</v>
       </c>
       <c r="T70">
-        <v>1.499845263932451</v>
+        <v>1.493611426948937</v>
       </c>
       <c r="U70">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V70">
-        <v>0.120989659212924</v>
+        <v>0.1265990228711551</v>
       </c>
       <c r="W70">
-        <v>0.1289508169934641</v>
+        <v>0.1224508169934641</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.5499529964223816</v>
+        <v>0.575450103959796</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7132,13 +7132,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1399815668521114</v>
+        <v>0.1355848541757967</v>
       </c>
       <c r="C71">
-        <v>-5.037836941810962</v>
+        <v>-4.532525694384223</v>
       </c>
       <c r="D71">
-        <v>18.12016305818904</v>
+        <v>18.62547430561578</v>
       </c>
       <c r="E71">
         <v>16.108</v>
@@ -7165,37 +7165,37 @@
         <v>2.37</v>
       </c>
       <c r="M71">
-        <v>4.372833600000001</v>
+        <v>4.1790816</v>
       </c>
       <c r="N71">
-        <v>-2.002833600000001</v>
+        <v>-1.8090816</v>
       </c>
       <c r="O71">
-        <v>-0.4406233920000002</v>
+        <v>-0.397997952</v>
       </c>
       <c r="P71">
-        <v>-1.562210208</v>
+        <v>-1.411083648</v>
       </c>
       <c r="Q71">
-        <v>-1.532210208000001</v>
+        <v>-1.381083648</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.1639613267630833</v>
+        <v>0.164246124581423</v>
       </c>
       <c r="T71">
-        <v>1.548227369220595</v>
+        <v>1.541792440721484</v>
       </c>
       <c r="U71">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V71">
-        <v>0.1192361858909975</v>
+        <v>0.1247642544237471</v>
       </c>
       <c r="W71">
-        <v>0.1292080515297907</v>
+        <v>0.1227080515297907</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.5419826631408979</v>
+        <v>0.5671102473806686</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7214,13 +7214,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1412905668521114</v>
+        <v>0.1368938541757967</v>
       </c>
       <c r="C72">
-        <v>-5.658849502979191</v>
+        <v>-5.155606573816389</v>
       </c>
       <c r="D72">
-        <v>17.93115049702082</v>
+        <v>18.43439342618361</v>
       </c>
       <c r="E72">
         <v>16.54000000000001</v>
@@ -7247,37 +7247,37 @@
         <v>2.37</v>
       </c>
       <c r="M72">
-        <v>4.436208000000001</v>
+        <v>4.239648000000001</v>
       </c>
       <c r="N72">
-        <v>-2.066208</v>
+        <v>-1.869648000000001</v>
       </c>
       <c r="O72">
-        <v>-0.4545657600000001</v>
+        <v>-0.4113225600000002</v>
       </c>
       <c r="P72">
-        <v>-1.61164224</v>
+        <v>-1.458325440000001</v>
       </c>
       <c r="Q72">
-        <v>-1.581642240000001</v>
+        <v>-1.428325440000001</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.168900037655186</v>
+        <v>0.1694109954008037</v>
       </c>
       <c r="T72">
-        <v>1.599834948194615</v>
+        <v>1.593185522078866</v>
       </c>
       <c r="U72">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V72">
-        <v>0.1175328118068404</v>
+        <v>0.1229819079319792</v>
       </c>
       <c r="W72">
-        <v>0.1294579365079365</v>
+        <v>0.1229579365079365</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.5342400536674565</v>
+        <v>0.5590086724180875</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7296,13 +7296,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1425995668521114</v>
+        <v>0.1382028541757966</v>
       </c>
       <c r="C73">
-        <v>-6.275959567495224</v>
+        <v>-5.774806625740485</v>
       </c>
       <c r="D73">
-        <v>17.74604043250478</v>
+        <v>18.24719337425951</v>
       </c>
       <c r="E73">
         <v>16.972</v>
@@ -7329,37 +7329,37 @@
         <v>2.37</v>
       </c>
       <c r="M73">
-        <v>4.4995824</v>
+        <v>4.3002144</v>
       </c>
       <c r="N73">
-        <v>-2.1295824</v>
+        <v>-1.9302144</v>
       </c>
       <c r="O73">
-        <v>-0.4685081280000001</v>
+        <v>-0.4246471679999999</v>
       </c>
       <c r="P73">
-        <v>-1.661074272</v>
+        <v>-1.505567232</v>
       </c>
       <c r="Q73">
-        <v>-1.631074272</v>
+        <v>-1.475567232</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.1741793492984683</v>
+        <v>0.1749320642077279</v>
       </c>
       <c r="T73">
-        <v>1.655001670546153</v>
+        <v>1.648122953874689</v>
       </c>
       <c r="U73">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V73">
-        <v>0.1158774200912511</v>
+        <v>0.1212497683836415</v>
       </c>
       <c r="W73">
-        <v>0.1297007824726135</v>
+        <v>0.1232007824726134</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.5267155458693233</v>
+        <v>0.5511353108347343</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7378,13 +7378,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1439085668521114</v>
+        <v>0.1395118541757966</v>
       </c>
       <c r="C74">
-        <v>-6.889286761272707</v>
+        <v>-6.390242890265668</v>
       </c>
       <c r="D74">
-        <v>17.56471323872729</v>
+        <v>18.06375710973433</v>
       </c>
       <c r="E74">
         <v>17.404</v>
@@ -7411,37 +7411,37 @@
         <v>2.37</v>
       </c>
       <c r="M74">
-        <v>4.562956799999999</v>
+        <v>4.3607808</v>
       </c>
       <c r="N74">
-        <v>-2.192956799999999</v>
+        <v>-1.9907808</v>
       </c>
       <c r="O74">
-        <v>-0.4824504959999998</v>
+        <v>-0.4379717759999999</v>
       </c>
       <c r="P74">
-        <v>-1.710506303999999</v>
+        <v>-1.552809024</v>
       </c>
       <c r="Q74">
-        <v>-1.680506304</v>
+        <v>-1.522809024</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.1798357546305564</v>
+        <v>0.1808474950722897</v>
       </c>
       <c r="T74">
-        <v>1.714108873065658</v>
+        <v>1.706984487941642</v>
       </c>
       <c r="U74">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V74">
-        <v>0.1142680114788727</v>
+        <v>0.1195657438227576</v>
       </c>
       <c r="W74">
-        <v>0.1299368827160494</v>
+        <v>0.1234368827160494</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.5194000521766939</v>
+        <v>0.5434806537398074</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7460,13 +7460,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1452175668521113</v>
+        <v>0.1408208541757967</v>
       </c>
       <c r="C75">
-        <v>-7.498945870377788</v>
+        <v>-7.002027747996571</v>
       </c>
       <c r="D75">
-        <v>17.38705412962221</v>
+        <v>17.88397225200343</v>
       </c>
       <c r="E75">
         <v>17.836</v>
@@ -7493,37 +7493,37 @@
         <v>2.37</v>
       </c>
       <c r="M75">
-        <v>4.6263312</v>
+        <v>4.4213472</v>
       </c>
       <c r="N75">
-        <v>-2.2563312</v>
+        <v>-2.051347199999999</v>
       </c>
       <c r="O75">
-        <v>-0.496392864</v>
+        <v>-0.4512963839999999</v>
       </c>
       <c r="P75">
-        <v>-1.759938336</v>
+        <v>-1.600050816</v>
       </c>
       <c r="Q75">
-        <v>-1.729938336</v>
+        <v>-1.570050816</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.1859111529502067</v>
+        <v>0.187201106000893</v>
       </c>
       <c r="T75">
-        <v>1.777594386882904</v>
+        <v>1.770206135643184</v>
       </c>
       <c r="U75">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V75">
-        <v>0.1127026962531347</v>
+        <v>0.117927856921076</v>
       </c>
       <c r="W75">
-        <v>0.1301665144596652</v>
+        <v>0.1236665144596651</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.5122849829687939</v>
+        <v>0.5360357132776183</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1465265668521114</v>
+        <v>0.1421298541757967</v>
       </c>
       <c r="C76">
-        <v>-8.10504708334258</v>
+        <v>-7.610269149623722</v>
       </c>
       <c r="D76">
-        <v>17.21295291665742</v>
+        <v>17.70773085037628</v>
       </c>
       <c r="E76">
         <v>18.268</v>
@@ -7575,37 +7575,37 @@
         <v>2.37</v>
       </c>
       <c r="M76">
-        <v>4.6897056</v>
+        <v>4.481913599999999</v>
       </c>
       <c r="N76">
-        <v>-2.3197056</v>
+        <v>-2.111913599999999</v>
       </c>
       <c r="O76">
-        <v>-0.510335232</v>
+        <v>-0.4646209919999998</v>
       </c>
       <c r="P76">
-        <v>-1.809370368</v>
+        <v>-1.647292607999999</v>
       </c>
       <c r="Q76">
-        <v>-1.779370368</v>
+        <v>-1.617292608</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.1924538896021377</v>
+        <v>0.1940434562316966</v>
       </c>
       <c r="T76">
-        <v>1.845963401763016</v>
+        <v>1.838290987014076</v>
       </c>
       <c r="U76">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V76">
-        <v>0.1111796868443085</v>
+        <v>0.1163342372329534</v>
       </c>
       <c r="W76">
-        <v>0.1303899399399399</v>
+        <v>0.1238899399399399</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.5053622129286751</v>
+        <v>0.5287919874225153</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7624,13 +7624,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1814022806608017</v>
+        <v>0.1434388541757967</v>
       </c>
       <c r="C77">
-        <v>-12.16208181914681</v>
+        <v>-8.215070832071113</v>
       </c>
       <c r="D77">
-        <v>13.5879181808532</v>
+        <v>17.53492916792889</v>
       </c>
       <c r="E77">
         <v>18.70000000000001</v>
@@ -7657,45 +7657,45 @@
         <v>2.37</v>
       </c>
       <c r="M77">
-        <v>6.162480000000001</v>
+        <v>4.54248</v>
       </c>
       <c r="N77">
-        <v>-3.792480000000001</v>
+        <v>-2.17248</v>
       </c>
       <c r="O77">
-        <v>-0.8343456000000002</v>
+        <v>-0.4779456</v>
       </c>
       <c r="P77">
-        <v>-2.958134400000001</v>
+        <v>-1.6945344</v>
       </c>
       <c r="Q77">
-        <v>-2.928134400000001</v>
+        <v>-1.6645344</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2032869004209844</v>
+        <v>0.2014331944809645</v>
       </c>
       <c r="T77">
-        <v>1.959164087847722</v>
+        <v>1.911822626494639</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V77">
-        <v>0.0846087938622113</v>
+        <v>0.1147831140698473</v>
       </c>
       <c r="W77">
-        <v>0.1741074074074074</v>
+        <v>0.1241074074074074</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y77">
-        <v>0.384585426646415</v>
+        <v>0.521741427590215</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7706,13 +7706,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1831462806608017</v>
+        <v>0.1447478541757967</v>
       </c>
       <c r="C78">
-        <v>-12.73568836823672</v>
+        <v>-8.81653252211035</v>
       </c>
       <c r="D78">
-        <v>13.44631163176329</v>
+        <v>17.36546747788965</v>
       </c>
       <c r="E78">
         <v>19.132</v>
@@ -7739,45 +7739,45 @@
         <v>2.37</v>
       </c>
       <c r="M78">
-        <v>6.244646400000001</v>
+        <v>4.6030464</v>
       </c>
       <c r="N78">
-        <v>-3.8746464</v>
+        <v>-2.2330464</v>
       </c>
       <c r="O78">
-        <v>-0.8524222080000001</v>
+        <v>-0.491270208</v>
       </c>
       <c r="P78">
-        <v>-3.022224192</v>
+        <v>-1.741776192</v>
       </c>
       <c r="Q78">
-        <v>-2.992224192000001</v>
+        <v>-1.711776192</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2110988546051921</v>
+        <v>0.2094387442510047</v>
       </c>
       <c r="T78">
-        <v>2.040795924841377</v>
+        <v>1.991481902598583</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V78">
-        <v>0.08349552025876117</v>
+        <v>0.1132728099373493</v>
       </c>
       <c r="W78">
-        <v>0.1743191520467836</v>
+        <v>0.1243191520467836</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y78">
-        <v>0.3795250920852781</v>
+        <v>0.5148764088061333</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7788,13 +7788,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1848902806608017</v>
+        <v>0.1460568541757967</v>
       </c>
       <c r="C79">
-        <v>-13.3063738526664</v>
+        <v>-9.414750128281206</v>
       </c>
       <c r="D79">
-        <v>13.3076261473336</v>
+        <v>17.1992498717188</v>
       </c>
       <c r="E79">
         <v>19.564</v>
@@ -7821,45 +7821,45 @@
         <v>2.37</v>
       </c>
       <c r="M79">
-        <v>6.326812800000001</v>
+        <v>4.6636128</v>
       </c>
       <c r="N79">
-        <v>-3.956812800000001</v>
+        <v>-2.2936128</v>
       </c>
       <c r="O79">
-        <v>-0.8704988160000001</v>
+        <v>-0.504594816</v>
       </c>
       <c r="P79">
-        <v>-3.086313984000001</v>
+        <v>-1.789017984</v>
       </c>
       <c r="Q79">
-        <v>-3.056313984000001</v>
+        <v>-1.759017984</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2195901091532439</v>
+        <v>0.2181404287836571</v>
       </c>
       <c r="T79">
-        <v>2.129526182443176</v>
+        <v>2.078068072276782</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V79">
-        <v>0.08241116285280323</v>
+        <v>0.1118017344836175</v>
       </c>
       <c r="W79">
-        <v>0.1745253968253968</v>
+        <v>0.1245253968253968</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y79">
-        <v>0.3745961947854692</v>
+        <v>0.5081897021982614</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7870,13 +7870,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1866342806608016</v>
+        <v>0.1473658541757967</v>
       </c>
       <c r="C80">
-        <v>-13.8742277334635</v>
+        <v>-10.00981592189455</v>
       </c>
       <c r="D80">
-        <v>13.17177226653651</v>
+        <v>17.03618407810546</v>
       </c>
       <c r="E80">
         <v>19.99600000000001</v>
@@ -7903,45 +7903,45 @@
         <v>2.37</v>
       </c>
       <c r="M80">
-        <v>6.408979200000001</v>
+        <v>4.7241792</v>
       </c>
       <c r="N80">
-        <v>-4.038979200000001</v>
+        <v>-2.3541792</v>
       </c>
       <c r="O80">
-        <v>-0.8885754240000002</v>
+        <v>-0.517919424</v>
       </c>
       <c r="P80">
-        <v>-3.150403776000001</v>
+        <v>-1.836259776</v>
       </c>
       <c r="Q80">
-        <v>-3.120403776000001</v>
+        <v>-1.806259776</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.2288532959329368</v>
+        <v>0.2276331755465505</v>
       </c>
       <c r="T80">
-        <v>2.226322827099684</v>
+        <v>2.172525711925726</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V80">
-        <v>0.08135460948289548</v>
+        <v>0.1103683789133147</v>
       </c>
       <c r="W80">
-        <v>0.1747263532763533</v>
+        <v>0.1247263532763533</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y80">
-        <v>0.3697936794677068</v>
+        <v>0.501674449605976</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7952,13 +7952,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.1883782806608017</v>
+        <v>0.1841112676004387</v>
       </c>
       <c r="C81">
-        <v>-14.43933585544086</v>
+        <v>-14.02283009633051</v>
       </c>
       <c r="D81">
-        <v>13.03866414455915</v>
+        <v>13.4551699036695</v>
       </c>
       <c r="E81">
         <v>20.42800000000001</v>
@@ -7985,37 +7985,37 @@
         <v>2.37</v>
       </c>
       <c r="M81">
-        <v>6.491145600000002</v>
+        <v>6.269313600000001</v>
       </c>
       <c r="N81">
-        <v>-4.121145600000002</v>
+        <v>-3.899313600000001</v>
       </c>
       <c r="O81">
-        <v>-0.9066520320000004</v>
+        <v>-0.8578489920000002</v>
       </c>
       <c r="P81">
-        <v>-3.214493568000002</v>
+        <v>-3.041464608000001</v>
       </c>
       <c r="Q81">
-        <v>-3.184493568000002</v>
+        <v>-3.011464608000001</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.2389986909773625</v>
+        <v>0.243131962118491</v>
       </c>
       <c r="T81">
-        <v>2.332338199818717</v>
+        <v>2.326746490544919</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.08032480429956769</v>
+        <v>0.083166999334664</v>
       </c>
       <c r="W81">
-        <v>0.1749222222222222</v>
+        <v>0.1684222222222222</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.3651127468162167</v>
+        <v>0.3780318151575636</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -8034,13 +8034,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.1901222806608017</v>
+        <v>0.1858552676004387</v>
       </c>
       <c r="C82">
-        <v>-15.00178062808789</v>
+        <v>-14.58773927899565</v>
       </c>
       <c r="D82">
-        <v>12.90821937191212</v>
+        <v>13.32226072100436</v>
       </c>
       <c r="E82">
         <v>20.86</v>
@@ -8067,37 +8067,37 @@
         <v>2.37</v>
       </c>
       <c r="M82">
-        <v>6.573312</v>
+        <v>6.348672000000001</v>
       </c>
       <c r="N82">
-        <v>-4.203312</v>
+        <v>-3.978672</v>
       </c>
       <c r="O82">
-        <v>-0.9247286400000001</v>
+        <v>-0.8753078400000001</v>
       </c>
       <c r="P82">
-        <v>-3.27858336</v>
+        <v>-3.10336416</v>
       </c>
       <c r="Q82">
-        <v>-3.24858336</v>
+        <v>-3.073364160000001</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.2501586255262306</v>
+        <v>0.2548235602244155</v>
       </c>
       <c r="T82">
-        <v>2.448955109809653</v>
+        <v>2.443083815072165</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.07932074424582311</v>
+        <v>0.08212741184298071</v>
       </c>
       <c r="W82">
-        <v>0.1751131944444445</v>
+        <v>0.1686131944444444</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.3605488374810141</v>
+        <v>0.3733064174680941</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8116,13 +8116,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1918662806608017</v>
+        <v>0.1875992676004387</v>
       </c>
       <c r="C83">
-        <v>-15.56164119571119</v>
+        <v>-15.15004841043582</v>
       </c>
       <c r="D83">
-        <v>12.78035880428881</v>
+        <v>13.19195158956419</v>
       </c>
       <c r="E83">
         <v>21.29200000000001</v>
@@ -8149,37 +8149,37 @@
         <v>2.37</v>
       </c>
       <c r="M83">
-        <v>6.655478400000001</v>
+        <v>6.428030400000001</v>
       </c>
       <c r="N83">
-        <v>-4.285478400000001</v>
+        <v>-4.058030400000001</v>
       </c>
       <c r="O83">
-        <v>-0.9428052480000001</v>
+        <v>-0.8927666880000001</v>
       </c>
       <c r="P83">
-        <v>-3.342673152000001</v>
+        <v>-3.165263712000001</v>
       </c>
       <c r="Q83">
-        <v>-3.312673152000001</v>
+        <v>-3.135263712000001</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.2624932900276111</v>
+        <v>0.2677458528678058</v>
       </c>
       <c r="T83">
-        <v>2.577847484010161</v>
+        <v>2.571667173760173</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.0783414757983438</v>
+        <v>0.08111349317825255</v>
       </c>
       <c r="W83">
-        <v>0.175299451303155</v>
+        <v>0.168799451303155</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.3560976172651992</v>
+        <v>0.3686976962647843</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8198,13 +8198,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1936102806608017</v>
+        <v>0.1893432676004387</v>
       </c>
       <c r="C84">
-        <v>-16.11899359756246</v>
+        <v>-15.70983304731132</v>
       </c>
       <c r="D84">
-        <v>12.65500640243754</v>
+        <v>13.06416695268869</v>
       </c>
       <c r="E84">
         <v>21.72400000000001</v>
@@ -8231,37 +8231,37 @@
         <v>2.37</v>
       </c>
       <c r="M84">
-        <v>6.737644800000002</v>
+        <v>6.507388800000001</v>
       </c>
       <c r="N84">
-        <v>-4.367644800000002</v>
+        <v>-4.137388800000001</v>
       </c>
       <c r="O84">
-        <v>-0.9608818560000004</v>
+        <v>-0.9102255360000002</v>
       </c>
       <c r="P84">
-        <v>-3.406762944000001</v>
+        <v>-3.227163264000001</v>
       </c>
       <c r="Q84">
-        <v>-3.376762944000002</v>
+        <v>-3.197163264000001</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.2761984728069228</v>
+        <v>0.2821039558049062</v>
       </c>
       <c r="T84">
-        <v>2.721061233121837</v>
+        <v>2.714537572302405</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.07738609194714448</v>
+        <v>0.08012430423705434</v>
       </c>
       <c r="W84">
-        <v>0.1754811653116531</v>
+        <v>0.1689811653116531</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.3517549633961112</v>
+        <v>0.3642013828957016</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8280,13 +8280,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1953542806608017</v>
+        <v>0.1910872676004386</v>
       </c>
       <c r="C85">
-        <v>-16.67391091863455</v>
+        <v>-16.26716584683151</v>
       </c>
       <c r="D85">
-        <v>12.53208908136545</v>
+        <v>12.9388341531685</v>
       </c>
       <c r="E85">
         <v>22.15600000000001</v>
@@ -8313,37 +8313,37 @@
         <v>2.37</v>
       </c>
       <c r="M85">
-        <v>6.819811200000002</v>
+        <v>6.586747200000001</v>
       </c>
       <c r="N85">
-        <v>-4.449811200000002</v>
+        <v>-4.216747200000001</v>
       </c>
       <c r="O85">
-        <v>-0.9789584640000004</v>
+        <v>-0.9276843840000003</v>
       </c>
       <c r="P85">
-        <v>-3.470852736000001</v>
+        <v>-3.289062816000001</v>
       </c>
       <c r="Q85">
-        <v>-3.440852736000001</v>
+        <v>-3.259062816000001</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.2915160300308595</v>
+        <v>0.2981512473228418</v>
       </c>
       <c r="T85">
-        <v>2.881123658599592</v>
+        <v>2.874216253026077</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.07645372939356443</v>
+        <v>0.07915895117395728</v>
       </c>
       <c r="W85">
-        <v>0.175658500669344</v>
+        <v>0.169158500669344</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.3475169517889292</v>
+        <v>0.3598134144270786</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8362,13 +8362,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1970982806608017</v>
+        <v>0.1928312676004387</v>
       </c>
       <c r="C86">
-        <v>-17.22646343175403</v>
+        <v>-16.82211670451453</v>
       </c>
       <c r="D86">
-        <v>12.41153656824597</v>
+        <v>12.81588329548548</v>
       </c>
       <c r="E86">
         <v>22.588</v>
@@ -8395,37 +8395,37 @@
         <v>2.37</v>
       </c>
       <c r="M86">
-        <v>6.901977600000001</v>
+        <v>6.666105600000001</v>
       </c>
       <c r="N86">
-        <v>-4.531977600000001</v>
+        <v>-4.296105600000001</v>
       </c>
       <c r="O86">
-        <v>-0.9970350720000003</v>
+        <v>-0.9451432320000002</v>
       </c>
       <c r="P86">
-        <v>-3.534942528000001</v>
+        <v>-3.350962368</v>
       </c>
       <c r="Q86">
-        <v>-3.504942528000001</v>
+        <v>-3.320962368</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.3087482819077881</v>
+        <v>0.3162044502805193</v>
       </c>
       <c r="T86">
-        <v>3.061193887262065</v>
+        <v>3.053854768840205</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.07554356594840295</v>
+        <v>0.07821658270760067</v>
       </c>
       <c r="W86">
-        <v>0.1758316137566138</v>
+        <v>0.1693316137566138</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.3433798452200134</v>
+        <v>0.3555299213981848</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8444,13 +8444,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.1988422806608016</v>
+        <v>0.1945752676004386</v>
       </c>
       <c r="C87">
-        <v>-17.77671873155076</v>
+        <v>-17.37475288416656</v>
       </c>
       <c r="D87">
-        <v>12.29328126844924</v>
+        <v>12.69524711583344</v>
       </c>
       <c r="E87">
         <v>23.02</v>
@@ -8477,37 +8477,37 @@
         <v>2.37</v>
       </c>
       <c r="M87">
-        <v>6.984144</v>
+        <v>6.745464</v>
       </c>
       <c r="N87">
-        <v>-4.614144</v>
+        <v>-4.375464</v>
       </c>
       <c r="O87">
-        <v>-1.01511168</v>
+        <v>-0.96260208</v>
       </c>
       <c r="P87">
-        <v>-3.59903232</v>
+        <v>-3.41286192</v>
       </c>
       <c r="Q87">
-        <v>-3.56903232</v>
+        <v>-3.38286192</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.3282781673683073</v>
+        <v>0.3366647469658872</v>
       </c>
       <c r="T87">
-        <v>3.265273479746203</v>
+        <v>3.257445086762885</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.07465481811371588</v>
+        <v>0.07729638761692302</v>
       </c>
       <c r="W87">
-        <v>0.1760006535947712</v>
+        <v>0.1695006535947712</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.3393400823350722</v>
+        <v>0.3513472164405592</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2005862806608016</v>
+        <v>0.1963192676004386</v>
       </c>
       <c r="C88">
-        <v>-18.32474186084103</v>
+        <v>-17.92513914058863</v>
       </c>
       <c r="D88">
-        <v>12.17725813915897</v>
+        <v>12.57686085941137</v>
       </c>
       <c r="E88">
         <v>23.452</v>
@@ -8559,37 +8559,37 @@
         <v>2.37</v>
       </c>
       <c r="M88">
-        <v>7.066310400000001</v>
+        <v>6.8248224</v>
       </c>
       <c r="N88">
-        <v>-4.696310400000001</v>
+        <v>-4.4548224</v>
       </c>
       <c r="O88">
-        <v>-1.033188288</v>
+        <v>-0.9800609280000001</v>
       </c>
       <c r="P88">
-        <v>-3.663122112000001</v>
+        <v>-3.474761472</v>
       </c>
       <c r="Q88">
-        <v>-3.633122112000001</v>
+        <v>-3.444761472</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.3505980364660435</v>
+        <v>0.3600479431777364</v>
       </c>
       <c r="T88">
-        <v>3.498507299728075</v>
+        <v>3.490119735817377</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.07378673883332383</v>
+        <v>0.07639759241207507</v>
       </c>
       <c r="W88">
-        <v>0.1761657622739018</v>
+        <v>0.1696657622739018</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.3353942674241992</v>
+        <v>0.3472617836912504</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8608,13 +8608,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2023302806608017</v>
+        <v>0.1980632676004386</v>
       </c>
       <c r="C89">
-        <v>-18.87059542992085</v>
+        <v>-18.47333783548113</v>
       </c>
       <c r="D89">
-        <v>12.06340457007915</v>
+        <v>12.46066216451887</v>
       </c>
       <c r="E89">
         <v>23.884</v>
@@ -8641,37 +8641,37 @@
         <v>2.37</v>
       </c>
       <c r="M89">
-        <v>7.148476800000001</v>
+        <v>6.904180800000001</v>
       </c>
       <c r="N89">
-        <v>-4.778476800000001</v>
+        <v>-4.534180800000001</v>
       </c>
       <c r="O89">
-        <v>-1.051264896</v>
+        <v>-0.9975197760000001</v>
       </c>
       <c r="P89">
-        <v>-3.727211904000001</v>
+        <v>-3.536661024000001</v>
       </c>
       <c r="Q89">
-        <v>-3.697211904000001</v>
+        <v>-3.506661024000001</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.3763517315788162</v>
+        <v>0.3870285541914084</v>
       </c>
       <c r="T89">
-        <v>3.767623245861004</v>
+        <v>3.758590484726406</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.07293861539845801</v>
+        <v>0.07551945916595926</v>
       </c>
       <c r="W89">
-        <v>0.1763270753512133</v>
+        <v>0.1698270753512133</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.3315391609020819</v>
+        <v>0.3432702689361785</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8690,13 +8690,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2040742806608017</v>
+        <v>0.1998072676004387</v>
       </c>
       <c r="C90">
-        <v>-19.41433972922917</v>
+        <v>-19.0194090469821</v>
       </c>
       <c r="D90">
-        <v>11.95166027077084</v>
+        <v>12.3465909530179</v>
       </c>
       <c r="E90">
         <v>24.31600000000001</v>
@@ -8723,37 +8723,37 @@
         <v>2.37</v>
       </c>
       <c r="M90">
-        <v>7.230643200000001</v>
+        <v>6.983539200000001</v>
       </c>
       <c r="N90">
-        <v>-4.860643200000001</v>
+        <v>-4.613539200000001</v>
       </c>
       <c r="O90">
-        <v>-1.069341504</v>
+        <v>-1.014978624</v>
       </c>
       <c r="P90">
-        <v>-3.791301696000001</v>
+        <v>-3.598560576000001</v>
       </c>
       <c r="Q90">
-        <v>-3.761301696000001</v>
+        <v>-3.568560576000001</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.4063977092103842</v>
+        <v>0.4185059337073591</v>
       </c>
       <c r="T90">
-        <v>4.081591849682755</v>
+        <v>4.071806358453607</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.07210976749620282</v>
+        <v>0.07466128349361881</v>
       </c>
       <c r="W90">
-        <v>0.1764847222222222</v>
+        <v>0.1699847222222222</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.3277716704372855</v>
+        <v>0.3393694704255401</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8772,13 +8772,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2058182806608017</v>
+        <v>0.2015512676004386</v>
       </c>
       <c r="C91">
-        <v>-19.95603283580679</v>
+        <v>-19.56341067324349</v>
       </c>
       <c r="D91">
-        <v>11.8419671641932</v>
+        <v>12.23458932675651</v>
       </c>
       <c r="E91">
         <v>24.748</v>
@@ -8805,37 +8805,37 @@
         <v>2.37</v>
       </c>
       <c r="M91">
-        <v>7.3128096</v>
+        <v>7.0628976</v>
       </c>
       <c r="N91">
-        <v>-4.9428096</v>
+        <v>-4.6928976</v>
       </c>
       <c r="O91">
-        <v>-1.087418112</v>
+        <v>-1.032437472</v>
       </c>
       <c r="P91">
-        <v>-3.855391488</v>
+        <v>-3.660460128</v>
       </c>
       <c r="Q91">
-        <v>-3.825391488000001</v>
+        <v>-3.630460128000001</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.4419065918658737</v>
+        <v>0.4557064731353008</v>
       </c>
       <c r="T91">
-        <v>4.452645654199369</v>
+        <v>4.44197057285848</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.07129954538950392</v>
+        <v>0.07382239266784783</v>
       </c>
       <c r="W91">
-        <v>0.1766388264669164</v>
+        <v>0.1701388264669164</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.3240888426795633</v>
+        <v>0.3355563303083992</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8854,13 +8854,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2075622806608017</v>
+        <v>0.2032952676004386</v>
       </c>
       <c r="C92">
-        <v>-20.49573071394627</v>
+        <v>-20.10539853042055</v>
       </c>
       <c r="D92">
-        <v>11.73426928605374</v>
+        <v>12.12460146957945</v>
       </c>
       <c r="E92">
         <v>25.18</v>
@@ -8887,37 +8887,37 @@
         <v>2.37</v>
       </c>
       <c r="M92">
-        <v>7.394976000000001</v>
+        <v>7.142256000000001</v>
       </c>
       <c r="N92">
-        <v>-5.024976000000001</v>
+        <v>-4.772256</v>
       </c>
       <c r="O92">
-        <v>-1.10549472</v>
+        <v>-1.04989632</v>
       </c>
       <c r="P92">
-        <v>-3.91948128</v>
+        <v>-3.72235968</v>
       </c>
       <c r="Q92">
-        <v>-3.88948128</v>
+        <v>-3.69235968</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.484517251052461</v>
+        <v>0.500347120448831</v>
       </c>
       <c r="T92">
-        <v>4.897910219619305</v>
+        <v>4.886167630144329</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.07050732821850943</v>
+        <v>0.07300214386042729</v>
       </c>
       <c r="W92">
-        <v>0.1767895061728395</v>
+        <v>0.1702895061728395</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.3204878555386792</v>
+        <v>0.3318279266383058</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2093062806608017</v>
+        <v>0.2050392676004386</v>
       </c>
       <c r="C93">
-        <v>-21.03348731039882</v>
+        <v>-20.64542644542282</v>
       </c>
       <c r="D93">
-        <v>11.62851268960118</v>
+        <v>12.01657355457718</v>
       </c>
       <c r="E93">
         <v>25.61200000000001</v>
@@ -8969,37 +8969,37 @@
         <v>2.37</v>
       </c>
       <c r="M93">
-        <v>7.477142400000001</v>
+        <v>7.221614400000001</v>
       </c>
       <c r="N93">
-        <v>-5.107142400000001</v>
+        <v>-4.851614400000001</v>
       </c>
       <c r="O93">
-        <v>-1.123571328</v>
+        <v>-1.067355168</v>
       </c>
       <c r="P93">
-        <v>-3.983571072000001</v>
+        <v>-3.784259232000001</v>
       </c>
       <c r="Q93">
-        <v>-3.953571072000001</v>
+        <v>-3.754259232000001</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.5365969456138459</v>
+        <v>0.5549079116098123</v>
       </c>
       <c r="T93">
-        <v>5.442122466243674</v>
+        <v>5.429075144604811</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.06973252241391041</v>
+        <v>0.07219992249932369</v>
       </c>
       <c r="W93">
-        <v>0.1769368742368743</v>
+        <v>0.1704368742368742</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.3169660109723201</v>
+        <v>0.3281814659060168</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2110502806608017</v>
+        <v>0.2067832676004387</v>
       </c>
       <c r="C94">
-        <v>-21.56935464447911</v>
+        <v>-21.18354634375054</v>
       </c>
       <c r="D94">
-        <v>11.5246453555209</v>
+        <v>11.91045365624947</v>
       </c>
       <c r="E94">
         <v>26.04400000000001</v>
@@ -9051,37 +9051,37 @@
         <v>2.37</v>
       </c>
       <c r="M94">
-        <v>7.559308800000002</v>
+        <v>7.300972800000001</v>
       </c>
       <c r="N94">
-        <v>-5.189308800000002</v>
+        <v>-4.930972800000001</v>
       </c>
       <c r="O94">
-        <v>-1.141647936</v>
+        <v>-1.084814016</v>
       </c>
       <c r="P94">
-        <v>-4.047660864000001</v>
+        <v>-3.846158784000001</v>
       </c>
       <c r="Q94">
-        <v>-4.017660864000002</v>
+        <v>-3.816158784000001</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.6016965638155766</v>
+        <v>0.6231089005610391</v>
       </c>
       <c r="T94">
-        <v>6.122387774524134</v>
+        <v>6.107709537680414</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.06897456021375921</v>
+        <v>0.0714151407330267</v>
       </c>
       <c r="W94">
-        <v>0.177081038647343</v>
+        <v>0.170581038647343</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.3135207282443601</v>
+        <v>0.3246142760592122</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -9100,13 +9100,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2127942806608017</v>
+        <v>0.2085272676004387</v>
       </c>
       <c r="C95">
-        <v>-22.10338289338362</v>
+        <v>-21.71980833271762</v>
       </c>
       <c r="D95">
-        <v>11.42261710661638</v>
+        <v>11.80619166728239</v>
       </c>
       <c r="E95">
         <v>26.476</v>
@@ -9133,37 +9133,37 @@
         <v>2.37</v>
       </c>
       <c r="M95">
-        <v>7.6414752</v>
+        <v>7.380331200000001</v>
       </c>
       <c r="N95">
-        <v>-5.2714752</v>
+        <v>-5.0103312</v>
       </c>
       <c r="O95">
-        <v>-1.159724544</v>
+        <v>-1.102272864</v>
       </c>
       <c r="P95">
-        <v>-4.111750656</v>
+        <v>-3.908058336</v>
       </c>
       <c r="Q95">
-        <v>-4.081750656000001</v>
+        <v>-3.878058336</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.6853960729320876</v>
+        <v>0.7107958863554732</v>
       </c>
       <c r="T95">
-        <v>6.997014599456154</v>
+        <v>6.980239471634759</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.06823289827597687</v>
+        <v>0.0706472359939619</v>
       </c>
       <c r="W95">
-        <v>0.1772221027479092</v>
+        <v>0.1707221027479092</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.3101495376180767</v>
+        <v>0.321123799972554</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9182,13 +9182,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2145382806608017</v>
+        <v>0.2102712676004387</v>
       </c>
       <c r="C96">
-        <v>-22.63562047301701</v>
+        <v>-22.2542607803415</v>
       </c>
       <c r="D96">
-        <v>11.32237952698299</v>
+        <v>11.7037392196585</v>
       </c>
       <c r="E96">
         <v>26.908</v>
@@ -9215,37 +9215,37 @@
         <v>2.37</v>
       </c>
       <c r="M96">
-        <v>7.723641600000001</v>
+        <v>7.459689600000001</v>
       </c>
       <c r="N96">
-        <v>-5.353641600000001</v>
+        <v>-5.089689600000001</v>
       </c>
       <c r="O96">
-        <v>-1.177801152</v>
+        <v>-1.119731712</v>
       </c>
       <c r="P96">
-        <v>-4.175840448000001</v>
+        <v>-3.969957888000001</v>
       </c>
       <c r="Q96">
-        <v>-4.145840448000001</v>
+        <v>-3.939957888000001</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>0.7969954184207693</v>
+        <v>0.8277118674147189</v>
       </c>
       <c r="T96">
-        <v>8.163183699365517</v>
+        <v>8.143612716907221</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.06750701637942391</v>
+        <v>0.0698956696536006</v>
       </c>
       <c r="W96">
-        <v>0.1773601654846336</v>
+        <v>0.1708601654846336</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.3068500744519269</v>
+        <v>0.3177075893345481</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9264,13 +9264,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2162822806608017</v>
+        <v>0.2120152676004387</v>
       </c>
       <c r="C97">
-        <v>-23.16611411459957</v>
+        <v>-22.78695039016072</v>
       </c>
       <c r="D97">
-        <v>11.22388588540043</v>
+        <v>11.60304960983929</v>
       </c>
       <c r="E97">
         <v>27.34000000000001</v>
@@ -9297,37 +9297,37 @@
         <v>2.37</v>
       </c>
       <c r="M97">
-        <v>7.805808000000002</v>
+        <v>7.539048000000001</v>
       </c>
       <c r="N97">
-        <v>-5.435808000000002</v>
+        <v>-5.169048000000001</v>
       </c>
       <c r="O97">
-        <v>-1.19587776</v>
+        <v>-1.13719056</v>
       </c>
       <c r="P97">
-        <v>-4.239930240000001</v>
+        <v>-4.03185744</v>
       </c>
       <c r="Q97">
-        <v>-4.209930240000002</v>
+        <v>-4.00185744</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>0.9532345021049233</v>
+        <v>0.9913942408976633</v>
       </c>
       <c r="T97">
-        <v>9.795820439238623</v>
+        <v>9.772335260288671</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.06679641620700892</v>
+        <v>0.06915992576251007</v>
       </c>
       <c r="W97">
-        <v>0.1774953216374269</v>
+        <v>0.1709953216374269</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.3036200736682224</v>
+        <v>0.3143632989205003</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9346,13 +9346,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2180262806608017</v>
+        <v>0.2137592676004386</v>
       </c>
       <c r="C98">
-        <v>-23.69490893731092</v>
+        <v>-23.31792227222333</v>
       </c>
       <c r="D98">
-        <v>11.12709106268908</v>
+        <v>11.50407772777667</v>
       </c>
       <c r="E98">
         <v>27.772</v>
@@ -9379,37 +9379,37 @@
         <v>2.37</v>
       </c>
       <c r="M98">
-        <v>7.887974400000001</v>
+        <v>7.6184064</v>
       </c>
       <c r="N98">
-        <v>-5.517974400000001</v>
+        <v>-5.2484064</v>
       </c>
       <c r="O98">
-        <v>-1.213954368</v>
+        <v>-1.154649408</v>
       </c>
       <c r="P98">
-        <v>-4.304020032</v>
+        <v>-4.093756992</v>
       </c>
       <c r="Q98">
-        <v>-4.274020032000001</v>
+        <v>-4.063756992</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.187593127631152</v>
+        <v>1.236917801122076</v>
       </c>
       <c r="T98">
-        <v>12.24477554904825</v>
+        <v>12.21541907536081</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.06610062020485259</v>
+        <v>0.06843950986915059</v>
       </c>
       <c r="W98">
-        <v>0.177627662037037</v>
+        <v>0.171127662037037</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.3004573645675117</v>
+        <v>0.3110886812234117</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9428,13 +9428,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2197702806608017</v>
+        <v>0.2155032676004386</v>
       </c>
       <c r="C99">
-        <v>-24.22204851720688</v>
+        <v>-23.84722001047314</v>
       </c>
       <c r="D99">
-        <v>11.03195148279312</v>
+        <v>11.40677998952687</v>
       </c>
       <c r="E99">
         <v>28.204</v>
@@ -9461,37 +9461,37 @@
         <v>2.37</v>
       </c>
       <c r="M99">
-        <v>7.970140800000001</v>
+        <v>7.697764800000001</v>
       </c>
       <c r="N99">
-        <v>-5.600140800000001</v>
+        <v>-5.327764800000001</v>
       </c>
       <c r="O99">
-        <v>-1.232030976</v>
+        <v>-1.172108256</v>
       </c>
       <c r="P99">
-        <v>-4.368109824000001</v>
+        <v>-4.155656544</v>
       </c>
       <c r="Q99">
-        <v>-4.338109824000002</v>
+        <v>-4.125656544</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>1.578190836841536</v>
+        <v>1.646123734829435</v>
       </c>
       <c r="T99">
-        <v>16.326367398731</v>
+        <v>16.28722543381441</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.06541917051201906</v>
+        <v>0.06773394791173666</v>
       </c>
       <c r="W99">
-        <v>0.177757273768614</v>
+        <v>0.171257273768614</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.297359865963723</v>
+        <v>0.3078815814169849</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9510,13 +9510,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2215142806608017</v>
+        <v>0.2172472676004387</v>
       </c>
       <c r="C100">
-        <v>-24.74757495263075</v>
+        <v>-24.37488572674481</v>
       </c>
       <c r="D100">
-        <v>10.93842504736925</v>
+        <v>11.31111427325518</v>
       </c>
       <c r="E100">
         <v>28.636</v>
@@ -9543,37 +9543,37 @@
         <v>2.37</v>
       </c>
       <c r="M100">
-        <v>8.0523072</v>
+        <v>7.7771232</v>
       </c>
       <c r="N100">
-        <v>-5.682307199999999</v>
+        <v>-5.4071232</v>
       </c>
       <c r="O100">
-        <v>-1.250107584</v>
+        <v>-1.189567104</v>
       </c>
       <c r="P100">
-        <v>-4.432199615999999</v>
+        <v>-4.217556096</v>
       </c>
       <c r="Q100">
-        <v>-4.402199615999999</v>
+        <v>-4.187556096</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>2.359386255262303</v>
+        <v>2.464535602244153</v>
       </c>
       <c r="T100">
-        <v>24.4895510980965</v>
+        <v>24.43083815072162</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.06475162795577398</v>
+        <v>0.06704278517794343</v>
       </c>
       <c r="W100">
-        <v>0.1778842403628118</v>
+        <v>0.1713842403628118</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.2943255816171544</v>
+        <v>0.3047399326270156</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9592,13 +9592,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2232582806608017</v>
+        <v>0.2189912676004387</v>
       </c>
       <c r="C101">
-        <v>-25.27152892632536</v>
+        <v>-24.90096014156568</v>
       </c>
       <c r="D101">
-        <v>10.84647107367464</v>
+        <v>11.21703985843432</v>
       </c>
       <c r="E101">
         <v>29.068</v>
@@ -9625,37 +9625,37 @@
         <v>2.37</v>
       </c>
       <c r="M101">
-        <v>8.1344736</v>
+        <v>7.8564816</v>
       </c>
       <c r="N101">
-        <v>-5.7644736</v>
+        <v>-5.4864816</v>
       </c>
       <c r="O101">
-        <v>-1.268184192</v>
+        <v>-1.207025952</v>
       </c>
       <c r="P101">
-        <v>-4.496289408</v>
+        <v>-4.279455648</v>
       </c>
       <c r="Q101">
-        <v>-4.466289408</v>
+        <v>-4.249455648</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>4.702972510524606</v>
+        <v>4.919771204488305</v>
       </c>
       <c r="T101">
-        <v>48.979102196193</v>
+        <v>48.86167630144325</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.06409757110773585</v>
+        <v>0.06636558532766117</v>
       </c>
       <c r="W101">
-        <v>0.1780086419753087</v>
+        <v>0.1715086419753087</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.2913525959442539</v>
+        <v>0.301661751489369</v>
       </c>
       <c r="Z101">
         <v>0</v>
